--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
   <si>
     <t>moniter and revew git submishions</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>create timsheet</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>web php</t>
   </si>
 </sst>
 </file>
@@ -305,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +331,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -372,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,14 +399,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,6 +412,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,19 +564,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:C22" totalsRowShown="0">
-  <autoFilter ref="A10:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:D22" totalsRowShown="0">
+  <autoFilter ref="A10:D22"/>
   <sortState ref="A11:C22">
     <sortCondition ref="A10:A22"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" name="Member" dataDxfId="14"/>
-    <tableColumn id="2" name="Time Spent" dataDxfId="12">
+    <tableColumn id="2" name="Time Spent" dataDxfId="13">
       <calculatedColumnFormula>'Cormac Brady'!$J$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Hours left" dataDxfId="13">
+    <tableColumn id="3" name="Hours left" dataDxfId="12">
       <calculatedColumnFormula>$H$7-Table2[[#This Row],[Time Spent]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" name="card"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1036,7 +1053,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,142 +1066,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>41918</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>41999</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>42016</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>42051</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+      <c r="D5" s="13">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="G5" s="13"/>
+      <c r="H5" s="5">
         <f>(D5+F5)</f>
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
+      <c r="D7" s="13">
         <v>40</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
         <v>40</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="12">
+      <c r="G7" s="13"/>
+      <c r="H7" s="10">
         <f>D7+F7</f>
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
+      <c r="D9" s="13">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="G9" s="13"/>
+      <c r="H9" s="5">
         <f>D9+F9</f>
         <v>11</v>
       </c>
@@ -1199,6 +1216,9 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1212,6 +1232,7 @@
         <f>$H$7-Table2[[#This Row],[Time Spent]]</f>
         <v>79</v>
       </c>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1232,11 +1253,11 @@
       </c>
       <c r="B13">
         <f>'Calvin Chan'!$J$6</f>
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="C13">
         <f>$H$7-Table2[[#This Row],[Time Spent]]</f>
-        <v>76</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,11 +1266,11 @@
       </c>
       <c r="B14">
         <f>'Cormac Brady'!$J$6</f>
-        <v>37.75</v>
+        <v>40.75</v>
       </c>
       <c r="C14">
         <f>$H$7-Table2[[#This Row],[Time Spent]]</f>
-        <v>42.25</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1258,11 +1279,11 @@
       </c>
       <c r="B15">
         <f>'Henry Hollingsworth'!$J$6</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <f>$H$7-Table2[[#This Row],[Time Spent]]</f>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1278,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1316,8 +1337,9 @@
         <f>$H$7-Table2[[#This Row],[Time Spent]]</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,21 +1365,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B22">
         <f>'Zach Yewman'!$J$6</f>
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <f>$H$7-Table2[[#This Row],[Time Spent]]</f>
-        <v>75.5</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UKzY/ENi2O9Et9jDsA+QBu531hYk2IoD47GxHYmmNJNHHVYx0HWZf79aD+TdbUOYcF0bVxecHo6Dp22158608Q==" saltValue="wh2897ERhOP08ju7zBn5tw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -1447,10 +1468,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1475,35 +1496,35 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table111[Actual Time2])</f>
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table111[Actual Time])</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>3</v>
       </c>
@@ -1562,10 +1583,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1599,17 +1620,17 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table11113[Actual Time2])</f>
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table11113[Actual Time])</f>
         <v>0.25</v>
       </c>
@@ -1624,19 +1645,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>7</v>
       </c>
@@ -1695,10 +1716,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,17 +1744,17 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table1111314[Actual Time2])</f>
         <v>6</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table1111314[Actual Time])</f>
         <v>0</v>
       </c>
@@ -1745,19 +1766,19 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>6</v>
       </c>
@@ -1780,7 +1801,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,10 +1837,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1842,39 +1863,48 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table111131415[Actual Time2])</f>
-        <v>4.5</v>
-      </c>
-      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table111131415[Actual Time])</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="6" t="s">
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
-        <v>4.5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1892,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,10 +1961,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1977,17 +2007,17 @@
       <c r="F3">
         <v>1.5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table1[Actual Time2])</f>
-        <v>13.75</v>
-      </c>
-      <c r="L3" s="6" t="s">
+        <v>16.75</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table1[Actual Time])</f>
         <v>1.5</v>
       </c>
@@ -2002,10 +2032,10 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>24</v>
       </c>
@@ -2031,12 +2061,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
-        <v>37.75</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2070,6 +2100,17 @@
       </c>
       <c r="F9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2126,10 +2167,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2145,36 +2186,36 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table15[Actual Time2])</f>
         <v>1</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table15[Actual Time])</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>1</v>
       </c>
@@ -2233,10 +2274,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2261,17 +2302,17 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table16[Actual Time2])</f>
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table16[Actual Time])</f>
         <v>0</v>
       </c>
@@ -2286,10 +2327,10 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
@@ -2306,10 +2347,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>11</v>
       </c>
@@ -2332,7 +2373,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,10 +2409,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2382,6 +2423,9 @@
       <c r="E2">
         <v>0.5</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -2393,17 +2437,17 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table17[Actual Time2])</f>
-        <v>4</v>
-      </c>
-      <c r="L3" s="6" t="s">
+        <v>6.75</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table17[Actual Time])</f>
         <v>0</v>
       </c>
@@ -2418,21 +2462,32 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
-        <v>4</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2508,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,10 +2544,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2517,17 +2572,17 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table18[Actual Time2])</f>
-        <v>8</v>
-      </c>
-      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table18[Actual Time])</f>
         <v>0</v>
       </c>
@@ -2540,12 +2595,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
@@ -2562,12 +2617,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2624,10 +2679,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2652,35 +2707,35 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table1812[Actual Time2])</f>
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table1812[Actual Time])</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>10</v>
       </c>
@@ -2739,10 +2794,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2767,35 +2822,35 @@
       <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table19[Actual Time2])</f>
         <v>1.5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table19[Actual Time])</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>1.5</v>
       </c>
@@ -2854,10 +2909,10 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2882,17 +2937,17 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SUM(Table110[Actual Time2])</f>
         <v>5.5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>SUM(Table110[Actual Time])</f>
         <v>0</v>
       </c>
@@ -2907,19 +2962,19 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>M3*Task_Table!H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(J3,M4)</f>
         <v>5.5</v>
       </c>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Team</t>
   </si>
@@ -199,6 +199,9 @@
     <t>gihub QA - EXTRA WORK</t>
   </si>
   <si>
+    <t>requirements progress</t>
+  </si>
+  <si>
     <t>project plan introduction</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>spell cheacking desin documet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alterling documents </t>
   </si>
   <si>
     <t>project plan overview</t>
@@ -256,6 +262,9 @@
     <t>desin (doc intoducton)</t>
   </si>
   <si>
+    <t>document editing</t>
+  </si>
+  <si>
     <t>risk analysis</t>
   </si>
   <si>
@@ -278,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -290,17 +299,22 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -396,9 +410,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -408,9 +420,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -758,20 +768,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -780,43 +790,43 @@
     <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -828,104 +838,101 @@
     <xf numFmtId="0" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2404,13 +2411,13 @@
       </c>
       <c r="B12" s="30">
         <f>'Au, Yee Tim'!$J$6</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="31">
         <f>$H$7-B12:B12</f>
-        <v>69</v>
-      </c>
-      <c r="D12" s="32"/>
+        <v>64</v>
+      </c>
+      <c r="D12" s="31"/>
       <c r="E12" s="28"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2420,15 +2427,15 @@
       <c r="A13" t="s" s="29">
         <v>20</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f>'Calvin Chan'!$J$6</f>
-        <v>6.75</v>
-      </c>
-      <c r="C13" s="34">
+        <v>7.25</v>
+      </c>
+      <c r="C13" s="33">
         <f>$H$7-B13:B13</f>
-        <v>73.25</v>
-      </c>
-      <c r="D13" s="35"/>
+        <v>72.75</v>
+      </c>
+      <c r="D13" s="33"/>
       <c r="E13" s="28"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2440,13 +2447,13 @@
       </c>
       <c r="B14" s="30">
         <f>'Cormac Brady'!$J$6</f>
-        <v>40.75</v>
-      </c>
-      <c r="C14" s="32">
+        <v>41.25</v>
+      </c>
+      <c r="C14" s="31">
         <f>$H$7-B14:B14</f>
-        <v>39.25</v>
-      </c>
-      <c r="D14" s="32"/>
+        <v>38.75</v>
+      </c>
+      <c r="D14" s="31"/>
       <c r="E14" s="28"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2456,15 +2463,15 @@
       <c r="A15" t="s" s="29">
         <v>22</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <f>'Henry Hollingsworth'!$J$6</f>
-        <v>14</v>
-      </c>
-      <c r="C15" s="34">
+        <v>19</v>
+      </c>
+      <c r="C15" s="33">
         <f>$H$7-B15:B15</f>
-        <v>66</v>
-      </c>
-      <c r="D15" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="28"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2482,7 +2489,7 @@
         <f>$H$7-B16:B16</f>
         <v>70</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="28"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -2492,15 +2499,15 @@
       <c r="A17" t="s" s="29">
         <v>24</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f>'James Portch'!$J$6</f>
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="C17" s="33">
         <f>$H$7-B17:B17</f>
-        <v>78.5</v>
-      </c>
-      <c r="D17" s="35"/>
+        <v>75.5</v>
+      </c>
+      <c r="D17" s="33"/>
       <c r="E17" s="28"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2518,7 +2525,7 @@
         <f>$H$7-B18:B18</f>
         <v>72.5</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="28"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2528,15 +2535,15 @@
       <c r="A19" t="s" s="24">
         <v>26</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <f>'Kieran Lynch'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <f>$H$7-B19:B19</f>
         <v>77</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="28"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2548,13 +2555,13 @@
       </c>
       <c r="B20" s="30">
         <f>'Melissa Smith'!$J$6</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="31">
         <f>$H$7-B20:B20</f>
-        <v>73</v>
-      </c>
-      <c r="D20" s="32"/>
+        <v>71</v>
+      </c>
+      <c r="D20" s="31"/>
       <c r="E20" s="28"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2564,43 +2571,43 @@
       <c r="A21" t="s" s="29">
         <v>28</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <f>'Scott Lockett'!$J$6</f>
-        <v>6</v>
-      </c>
-      <c r="C21" s="34">
+        <v>7</v>
+      </c>
+      <c r="C21" s="33">
         <f>$H$7-B21:B21</f>
-        <v>74</v>
-      </c>
-      <c r="D21" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="D21" s="33"/>
       <c r="E21" s="28"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="37">
+      <c r="A22" t="s" s="35">
         <v>29</v>
       </c>
       <c r="B22" s="30">
         <f>'Zach Yewman'!$J$6</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="32">
+        <v>15</v>
+      </c>
+      <c r="C22" s="31">
         <f>$H$7-B22:B22</f>
-        <v>67</v>
-      </c>
-      <c r="D22" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="D22" s="31"/>
       <c r="E22" s="28"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2639,20 +2646,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="23" style="52" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="52" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="52" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="52" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="52" customWidth="1"/>
-    <col min="13" max="13" width="8" style="52" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="23" style="51" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="51" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="51" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="51" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="8" style="51" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -2674,7 +2681,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -2691,7 +2698,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" t="s" s="26">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -2699,20 +2706,20 @@
       <c r="F2" s="26">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -2720,7 +2727,7 @@
       <c r="F3" s="31">
         <v>2</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
@@ -2739,13 +2746,13 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2759,28 +2766,28 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
@@ -2794,13 +2801,13 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -2809,13 +2816,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -2824,13 +2831,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2839,13 +2846,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -2854,13 +2861,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2869,13 +2876,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2884,13 +2891,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2899,13 +2906,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -2914,13 +2921,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -2929,13 +2936,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -2944,13 +2951,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -2959,13 +2966,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -2974,13 +2981,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -2989,13 +2996,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -3004,13 +3011,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -3019,13 +3026,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -3034,13 +3041,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -3049,13 +3056,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -3064,13 +3071,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -3079,13 +3086,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -3094,13 +3101,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -3109,13 +3116,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -3124,13 +3131,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -3155,20 +3162,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="53" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="53" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="8" style="53" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="52" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="52" customWidth="1"/>
+    <col min="13" max="13" width="8" style="52" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -3190,7 +3197,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -3204,7 +3211,7 @@
     </row>
     <row r="2" ht="17.5" customHeight="1">
       <c r="A2" t="s" s="26">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="26">
         <v>0.5</v>
@@ -3213,7 +3220,7 @@
         <v>0.25</v>
       </c>
       <c r="D2" t="s" s="26">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3221,20 +3228,20 @@
       <c r="F2" s="26">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="31">
         <v>1</v>
@@ -3242,14 +3249,14 @@
       <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -3261,19 +3268,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
         <v>51</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>2</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>1</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -3287,48 +3294,54 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" t="s" s="31">
+        <v>79</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42">
+        <v>2</v>
+      </c>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -3337,13 +3350,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -3352,13 +3365,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -3367,13 +3380,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -3382,13 +3395,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -3397,13 +3410,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3412,13 +3425,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -3427,13 +3440,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3442,13 +3455,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -3457,13 +3470,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3472,13 +3485,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -3487,13 +3500,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -3502,13 +3515,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -3517,13 +3530,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -3532,13 +3545,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -3547,13 +3560,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -3562,13 +3575,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -3577,13 +3590,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -3592,13 +3605,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -3607,13 +3620,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -3622,13 +3635,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -3637,13 +3650,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -3652,13 +3665,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -3683,20 +3696,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="54" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="54" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="54" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="54" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="54" customWidth="1"/>
-    <col min="13" max="13" width="8" style="54" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="53" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="53" customWidth="1"/>
+    <col min="13" max="13" width="8" style="53" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -3718,7 +3731,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -3735,7 +3748,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" t="s" s="26">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3743,20 +3756,20 @@
       <c r="F2" s="26">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -3764,14 +3777,14 @@
       <c r="F3" s="31">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -3783,17 +3796,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
-        <v>79</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
+        <v>82</v>
+      </c>
+      <c r="E4" s="33">
         <v>1</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="41">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -3807,48 +3822,48 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -3857,13 +3872,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -3872,13 +3887,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -3887,13 +3902,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -3902,13 +3917,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -3917,13 +3932,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3932,13 +3947,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -3947,13 +3962,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3962,13 +3977,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -3977,13 +3992,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3992,13 +4007,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4007,13 +4022,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -4022,13 +4037,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -4037,13 +4052,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -4052,13 +4067,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -4067,13 +4082,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -4082,13 +4097,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -4097,13 +4112,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -4112,13 +4127,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -4127,13 +4142,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -4142,13 +4157,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -4157,13 +4172,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -4172,13 +4187,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -4203,20 +4218,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="55" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="55" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="55" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="55" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="55" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="8" style="55" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="54" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="54" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="54" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="8" style="54" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -4238,7 +4253,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -4255,7 +4270,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" t="s" s="26">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="26">
         <v>2</v>
@@ -4263,20 +4278,20 @@
       <c r="F2" s="26">
         <v>4</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="31">
         <v>10</v>
@@ -4284,14 +4299,14 @@
       <c r="F3" s="31">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -4303,19 +4318,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
         <v>52</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>2</v>
       </c>
-      <c r="F4" s="34">
-        <v>4</v>
-      </c>
-      <c r="G4" s="40"/>
+      <c r="F4" s="33">
+        <v>6</v>
+      </c>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -4329,48 +4344,48 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -4379,13 +4394,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -4394,13 +4409,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -4409,13 +4424,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -4424,13 +4439,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -4439,13 +4454,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -4454,13 +4469,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -4469,13 +4484,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -4484,13 +4499,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -4499,13 +4514,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4514,13 +4529,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4529,13 +4544,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -4544,13 +4559,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -4559,13 +4574,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -4574,13 +4589,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -4589,13 +4604,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -4604,13 +4619,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -4619,13 +4634,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -4634,13 +4649,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -4649,13 +4664,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -4664,13 +4679,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -4679,13 +4694,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -4694,13 +4709,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -4725,20 +4740,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="8" style="39" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="37" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="8" style="37" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -4760,7 +4775,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -4791,13 +4806,13 @@
       <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="31">
@@ -4818,14 +4833,14 @@
       <c r="F3" s="31">
         <v>1.5</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>16.75</v>
+        <v>17.25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -4837,19 +4852,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
         <v>44</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>1</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -4863,9 +4878,9 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" t="s" s="31">
         <v>46</v>
       </c>
@@ -4875,44 +4890,44 @@
       <c r="F5" s="31">
         <v>4</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" t="s" s="34">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" t="s" s="33">
         <v>47</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>1</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>1</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>40.75</v>
+        <v>41.25</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" t="s" s="31">
         <v>49</v>
       </c>
@@ -4922,7 +4937,7 @@
       <c r="F7" s="31">
         <v>0.25</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -4931,19 +4946,19 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" t="s" s="34">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" t="s" s="33">
         <v>50</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>1</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>2</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -4952,9 +4967,9 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" t="s" s="31">
         <v>51</v>
       </c>
@@ -4964,7 +4979,7 @@
       <c r="F9" s="31">
         <v>1</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -4973,19 +4988,19 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" t="s" s="34">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" t="s" s="33">
         <v>52</v>
       </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -4994,13 +5009,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -5009,13 +5024,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -5024,13 +5039,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -5039,13 +5054,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -5054,13 +5069,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -5069,13 +5084,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -5084,13 +5099,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -5099,13 +5114,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -5114,13 +5129,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -5129,13 +5144,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -5144,13 +5159,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -5159,13 +5174,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -5174,13 +5189,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -5189,13 +5204,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -5204,13 +5219,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -5219,13 +5234,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -5234,13 +5249,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -5249,13 +5264,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -5264,13 +5279,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -5330,7 +5345,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -5355,22 +5370,22 @@
       <c r="F2" s="26">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
@@ -5379,7 +5394,7 @@
         <f>SUM(F2:F29)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
         <v>43</v>
       </c>
@@ -5389,13 +5404,13 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -5409,28 +5424,28 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
@@ -5444,13 +5459,13 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -5459,13 +5474,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -5474,13 +5489,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -5489,13 +5504,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -5504,13 +5519,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -5519,13 +5534,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -5534,13 +5549,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -5549,13 +5564,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -5564,13 +5579,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -5579,13 +5594,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -5594,13 +5609,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -5609,13 +5624,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -5624,13 +5639,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -5639,13 +5654,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -5654,13 +5669,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -5669,13 +5684,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -5684,13 +5699,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -5699,13 +5714,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -5714,13 +5729,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -5729,13 +5744,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -5744,13 +5759,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -5759,13 +5774,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -5774,13 +5789,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -5805,20 +5820,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8" style="46" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="8" style="45" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -5840,7 +5855,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -5865,18 +5880,18 @@
       <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
         <v>55</v>
       </c>
@@ -5886,14 +5901,14 @@
       <c r="F3" s="31">
         <v>3</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -5905,19 +5920,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
         <v>56</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>0</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>3</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -5931,9 +5946,9 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" t="s" s="31">
         <v>57</v>
       </c>
@@ -5943,42 +5958,48 @@
       <c r="F5" s="31">
         <v>3</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" t="s" s="33">
+        <v>58</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41">
+        <v>5</v>
+      </c>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -5987,13 +6008,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -6002,13 +6023,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -6017,13 +6038,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -6032,13 +6053,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -6047,13 +6068,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -6062,13 +6083,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -6077,13 +6098,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -6092,13 +6113,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -6107,13 +6128,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -6122,13 +6143,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -6137,13 +6158,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -6152,13 +6173,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -6167,13 +6188,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -6182,13 +6203,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -6197,13 +6218,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -6212,13 +6233,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -6227,13 +6248,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -6242,13 +6263,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -6257,13 +6278,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -6272,13 +6293,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -6287,13 +6308,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -6302,13 +6323,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -6333,20 +6354,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="8" style="47" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8" style="46" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -6368,7 +6389,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -6385,7 +6406,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" t="s" s="26">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="26">
         <v>0.5</v>
@@ -6393,20 +6414,20 @@
       <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -6414,14 +6435,14 @@
       <c r="F3" s="31">
         <v>2</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -6433,19 +6454,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
-        <v>60</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
+        <v>61</v>
+      </c>
+      <c r="E4" s="33">
         <v>2</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6459,54 +6480,54 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" t="s" s="31">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="31">
         <v>1</v>
       </c>
       <c r="F5" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="40"/>
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -6515,13 +6536,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -6530,13 +6551,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -6545,13 +6566,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -6560,13 +6581,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -6575,13 +6596,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -6590,13 +6611,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -6605,13 +6626,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -6620,13 +6641,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -6635,13 +6656,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -6650,13 +6671,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -6665,13 +6686,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -6680,13 +6701,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -6695,13 +6716,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -6710,13 +6731,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -6725,13 +6746,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -6740,13 +6761,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -6755,13 +6776,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -6770,13 +6791,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -6785,13 +6806,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -6800,13 +6821,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -6815,13 +6836,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -6830,13 +6851,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -6861,20 +6882,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="8" style="48" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="8" style="47" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -6896,7 +6917,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -6913,7 +6934,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" t="s" s="26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -6921,20 +6942,20 @@
       <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="31">
         <v>1</v>
@@ -6942,14 +6963,14 @@
       <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -6961,19 +6982,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
-        <v>64</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
+        <v>65</v>
+      </c>
+      <c r="E4" s="33">
         <v>10</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>9</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6987,9 +7008,9 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" t="s" s="31">
         <v>51</v>
       </c>
@@ -6999,42 +7020,46 @@
       <c r="F5" s="31">
         <v>2</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
+        <v>2</v>
+      </c>
+      <c r="F6" s="41">
+        <v>5</v>
+      </c>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -7043,13 +7068,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -7058,13 +7083,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -7073,13 +7098,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -7088,13 +7113,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -7103,13 +7128,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7118,13 +7143,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -7133,13 +7158,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -7148,13 +7173,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -7163,13 +7188,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -7178,13 +7203,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -7193,13 +7218,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -7208,13 +7233,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -7223,13 +7248,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -7238,13 +7263,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -7253,13 +7278,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -7268,13 +7293,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -7283,13 +7308,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -7298,13 +7323,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -7313,13 +7338,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -7328,13 +7353,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -7343,13 +7368,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -7358,13 +7383,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -7389,20 +7414,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="8" style="49" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="8" style="48" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -7424,7 +7449,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -7438,7 +7463,7 @@
     </row>
     <row r="2" ht="17.5" customHeight="1">
       <c r="A2" t="s" s="26">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -7455,22 +7480,22 @@
       <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
@@ -7489,13 +7514,13 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7509,28 +7534,28 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
@@ -7544,13 +7569,13 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -7559,13 +7584,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -7574,13 +7599,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -7589,13 +7614,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -7604,13 +7629,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -7619,13 +7644,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7634,13 +7659,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -7649,13 +7674,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -7664,13 +7689,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -7679,13 +7704,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -7694,13 +7719,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -7709,13 +7734,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -7724,13 +7749,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -7739,13 +7764,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -7754,13 +7779,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -7769,13 +7794,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -7784,13 +7809,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -7799,13 +7824,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -7814,13 +7839,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -7829,13 +7854,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -7844,13 +7869,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -7859,13 +7884,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -7874,13 +7899,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -7905,20 +7930,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="50" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="8" style="50" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="8" style="49" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -7940,7 +7965,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -7965,20 +7990,20 @@
       <c r="F2" s="26">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="31">
         <v>0.5</v>
@@ -7986,14 +8011,14 @@
       <c r="F3" s="31">
         <v>0.5</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
       </c>
       <c r="J3" s="8">
         <f>SUM(F2:F29)</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s" s="8">
@@ -8005,13 +8030,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
+        <v>68</v>
+      </c>
+      <c r="E4" s="41">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>3</v>
+      </c>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -8025,48 +8056,48 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(J3,M4)</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -8075,13 +8106,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -8090,13 +8121,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -8105,13 +8136,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -8120,13 +8151,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -8135,13 +8166,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8150,13 +8181,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -8165,13 +8196,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -8180,13 +8211,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -8195,13 +8226,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -8210,13 +8241,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -8225,13 +8256,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -8240,13 +8271,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -8255,13 +8286,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -8270,13 +8301,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -8285,13 +8316,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -8300,13 +8331,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -8315,13 +8346,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -8330,13 +8361,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -8345,13 +8376,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -8360,13 +8391,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -8375,13 +8406,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -8390,13 +8421,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -8421,20 +8452,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="22" style="51" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="51" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="51" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="51" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="51" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="51" customWidth="1"/>
-    <col min="13" max="13" width="8" style="51" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="22" style="50" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="50" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="50" customWidth="1"/>
+    <col min="13" max="13" width="8" style="50" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1">
@@ -8456,7 +8487,7 @@
       <c r="F1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="12"/>
       <c r="I1" t="s" s="8">
         <v>36</v>
@@ -8473,7 +8504,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" t="s" s="26">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -8481,20 +8512,20 @@
       <c r="F2" s="26">
         <v>3</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" t="s" s="31">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="31">
         <v>3</v>
@@ -8502,7 +8533,7 @@
       <c r="F3" s="31">
         <v>2</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="8">
         <v>42</v>
@@ -8521,19 +8552,19 @@
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" t="s" s="34">
-        <v>69</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" t="s" s="33">
+        <v>71</v>
+      </c>
+      <c r="E4" s="33">
         <v>0.1</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>0.5</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -8547,40 +8578,40 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" t="s" s="31">
-        <v>70</v>
-      </c>
-      <c r="E5" s="32">
+        <v>72</v>
+      </c>
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" t="s" s="34">
-        <v>71</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" t="s" s="33">
+        <v>73</v>
+      </c>
+      <c r="E6" s="41">
         <v>1</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="41">
         <v>1</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s" s="8">
         <v>48</v>
@@ -8594,13 +8625,13 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -8609,13 +8640,13 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -8624,13 +8655,13 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -8639,13 +8670,13 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -8654,13 +8685,13 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -8669,13 +8700,13 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8684,13 +8715,13 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -8699,13 +8730,13 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -8714,13 +8745,13 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -8729,13 +8760,13 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -8744,13 +8775,13 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -8759,13 +8790,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -8774,13 +8805,13 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -8789,13 +8820,13 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -8804,13 +8835,13 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -8819,13 +8850,13 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -8834,13 +8865,13 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -8849,13 +8880,13 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -8864,13 +8895,13 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -8879,13 +8910,13 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -8894,13 +8925,13 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -8909,13 +8940,13 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -8924,13 +8955,13 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
   <si>
     <t>Team</t>
   </si>
@@ -252,9 +252,6 @@
     <t>project plan web UI</t>
   </si>
   <si>
-    <t>php edit/delete buttons</t>
-  </si>
-  <si>
     <t>web application test doc</t>
   </si>
   <si>
@@ -290,12 +287,24 @@
   <si>
     <t>writing html</t>
   </si>
+  <si>
+    <t>vershion testing</t>
+  </si>
+  <si>
+    <t>data entry</t>
+  </si>
+  <si>
+    <t>php website</t>
+  </si>
+  <si>
+    <t>sql export</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -333,8 +342,21 @@
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +385,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -761,12 +788,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -858,20 +886,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2199,7 +2231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2219,14 +2253,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,14 +2311,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2293,16 +2327,16 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="51">
+      <c r="D5" s="53">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51">
+      <c r="E5" s="54"/>
+      <c r="F5" s="53">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2312,14 +2346,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2328,14 +2362,14 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="51">
+      <c r="D7" s="53">
         <v>40</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51">
+      <c r="E7" s="54"/>
+      <c r="F7" s="53">
         <v>40</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2345,14 +2379,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2361,16 +2395,16 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="51">
+      <c r="D9" s="53">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51">
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
@@ -2418,11 +2452,11 @@
       </c>
       <c r="B12" s="26">
         <f>'Au, Yee Tim'!$J$6</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="24"/>
@@ -2436,11 +2470,11 @@
       </c>
       <c r="B13" s="28">
         <f>'Calvin Chan'!$J$6</f>
-        <v>7.25</v>
+        <v>16.25</v>
       </c>
       <c r="C13" s="29">
         <f t="shared" si="0"/>
-        <v>72.75</v>
+        <v>63.75</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24"/>
@@ -2454,11 +2488,11 @@
       </c>
       <c r="B14" s="26">
         <f>'Cormac Brady'!$J$6</f>
-        <v>41.25</v>
+        <v>58.75</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>38.75</v>
+        <v>21.25</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="24"/>
@@ -2472,11 +2506,11 @@
       </c>
       <c r="B15" s="28">
         <f>'Henry Hollingsworth'!$J$6</f>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C15" s="29">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24"/>
@@ -2508,11 +2542,11 @@
       </c>
       <c r="B17" s="28">
         <f>'James Portch'!$J$6</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" s="29">
         <f t="shared" si="0"/>
-        <v>75.5</v>
+        <v>73.5</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="24"/>
@@ -2526,11 +2560,11 @@
       </c>
       <c r="B18" s="26">
         <f>'Karl Franks'!$J$6</f>
-        <v>7.5</v>
+        <v>24.5</v>
       </c>
       <c r="C18" s="27">
         <f t="shared" si="0"/>
-        <v>72.5</v>
+        <v>55.5</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="24"/>
@@ -2580,13 +2614,13 @@
       </c>
       <c r="B21" s="28">
         <f>'Scott Lockett'!$J$6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="29">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="D21" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D21" s="55"/>
       <c r="E21" s="24"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -2598,11 +2632,11 @@
       </c>
       <c r="B22" s="26">
         <f>'Zach Yewman'!$J$6</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C22" s="27">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="24"/>
@@ -2622,12 +2656,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2636,6 +2664,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -2704,7 +2738,7 @@
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -2725,7 +2759,7 @@
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="27">
         <v>2</v>
@@ -3164,7 +3198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3216,7 +3252,7 @@
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="22">
         <v>0.5</v>
@@ -3225,7 +3261,7 @@
         <v>0.25</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -3246,7 +3282,7 @@
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
@@ -3303,7 +3339,7 @@
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="38">
         <v>1</v>
@@ -3697,7 +3733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3752,7 +3790,7 @@
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -3773,7 +3811,7 @@
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="27">
         <v>2</v>
@@ -3788,7 +3826,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -3804,7 +3842,7 @@
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="29">
         <v>1</v>
@@ -3829,9 +3867,15 @@
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="12"/>
       <c r="I5" s="36"/>
@@ -3854,7 +3898,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -4218,7 +4262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4273,7 +4319,7 @@
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="22">
         <v>2</v>
@@ -4294,7 +4340,7 @@
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="27">
         <v>10</v>
@@ -4309,7 +4355,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -4331,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="29">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="12"/>
@@ -4375,7 +4421,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -4739,7 +4785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4842,7 +4890,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>17.25</v>
+        <v>34.75</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -4920,7 +4968,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>41.25</v>
+        <v>58.75</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -5000,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="29">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="12"/>
@@ -5308,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5386,7 +5434,7 @@
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="38">
         <v>2</v>
@@ -5814,7 +5862,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -5825,7 +5873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5916,7 +5966,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -5994,7 +6044,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -6004,9 +6054,15 @@
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="38">
+        <v>12</v>
+      </c>
+      <c r="F7" s="38">
+        <v>12</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
@@ -6358,7 +6414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6449,7 +6507,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7.25</v>
+        <v>16.25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -6511,9 +6569,15 @@
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="38">
+        <v>12</v>
+      </c>
+      <c r="F6" s="38">
+        <v>9</v>
+      </c>
       <c r="G6" s="34"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
@@ -6521,7 +6585,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7.25</v>
+        <v>16.25</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -6885,7 +6949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6975,7 +7041,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -6997,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="29">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="12"/>
@@ -7051,7 +7117,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -7929,7 +7995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8020,7 +8088,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8061,9 +8129,15 @@
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>2</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="12"/>
       <c r="I5" s="36"/>
@@ -8086,7 +8160,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -8450,7 +8524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8541,7 +8617,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7.5</v>
+        <v>24.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8603,14 +8679,14 @@
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="29" t="s">
-        <v>73</v>
+      <c r="D6" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="E6" s="37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="37">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="10"/>
@@ -8619,7 +8695,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7.5</v>
+        <v>24.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cormac\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
   <si>
     <t>Team</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>writing html</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>data addition</t>
+  </si>
+  <si>
+    <t>php</t>
   </si>
 </sst>
 </file>
@@ -858,16 +867,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2219,14 +2228,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,14 +2286,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2293,16 +2302,16 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="51">
+      <c r="D5" s="53">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51">
+      <c r="E5" s="54"/>
+      <c r="F5" s="53">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2312,14 +2321,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2328,14 +2337,14 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="51">
+      <c r="D7" s="53">
         <v>40</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51">
+      <c r="E7" s="54"/>
+      <c r="F7" s="53">
         <v>40</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2345,14 +2354,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2361,16 +2370,16 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="51">
+      <c r="D9" s="53">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51">
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
@@ -2400,11 +2409,11 @@
       </c>
       <c r="B11" s="21">
         <f>'Abdullah Alkhashty'!$J$6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="22">
         <f t="shared" ref="C11:C22" si="0">$H$7-B11:B11</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
@@ -2418,11 +2427,11 @@
       </c>
       <c r="B12" s="26">
         <f>'Au, Yee Tim'!$J$6</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="24"/>
@@ -2436,11 +2445,11 @@
       </c>
       <c r="B13" s="28">
         <f>'Calvin Chan'!$J$6</f>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="C13" s="29">
         <f t="shared" si="0"/>
-        <v>72.75</v>
+        <v>71.75</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24"/>
@@ -2454,11 +2463,11 @@
       </c>
       <c r="B14" s="26">
         <f>'Cormac Brady'!$J$6</f>
-        <v>41.25</v>
+        <v>44.75</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>38.75</v>
+        <v>35.25</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="24"/>
@@ -2472,11 +2481,11 @@
       </c>
       <c r="B15" s="28">
         <f>'Henry Hollingsworth'!$J$6</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="29">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24"/>
@@ -2508,11 +2517,11 @@
       </c>
       <c r="B17" s="28">
         <f>'James Portch'!$J$6</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" s="29">
         <f t="shared" si="0"/>
-        <v>75.5</v>
+        <v>73.5</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="24"/>
@@ -2526,11 +2535,11 @@
       </c>
       <c r="B18" s="26">
         <f>'Karl Franks'!$J$6</f>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="C18" s="27">
         <f t="shared" si="0"/>
-        <v>72.5</v>
+        <v>65.5</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="24"/>
@@ -2562,11 +2571,11 @@
       </c>
       <c r="B20" s="26">
         <f>'Melissa Smith'!$J$6</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="27">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="24"/>
@@ -2580,11 +2589,11 @@
       </c>
       <c r="B21" s="28">
         <f>'Scott Lockett'!$J$6</f>
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C21" s="29">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>72.7</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="24"/>
@@ -2598,11 +2607,11 @@
       </c>
       <c r="B22" s="26">
         <f>'Zach Yewman'!$J$6</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C22" s="27">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="24"/>
@@ -2622,12 +2631,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2636,6 +2639,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -3164,7 +3173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3261,7 +3272,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -3309,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="12"/>
@@ -3333,7 +3344,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -3697,7 +3708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3788,7 +3801,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -3810,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="37">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="12"/>
@@ -3854,7 +3867,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -4218,7 +4231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4309,7 +4324,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -4331,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="29">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="12"/>
@@ -4375,7 +4390,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -4739,7 +4754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4842,7 +4859,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>17.25</v>
+        <v>20.75</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -4920,7 +4937,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>41.25</v>
+        <v>44.75</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -5000,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="29">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="12"/>
@@ -5308,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5401,7 +5418,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -5416,9 +5433,15 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37">
+        <v>2</v>
+      </c>
       <c r="G4" s="34"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
@@ -5461,7 +5484,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -5825,7 +5848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5916,7 +5941,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -5985,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="10"/>
@@ -5994,7 +6019,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -6358,7 +6383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6440,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="10"/>
@@ -6449,7 +6476,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -6521,7 +6548,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -6885,7 +6912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6975,7 +7004,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -7037,12 +7066,14 @@
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="E6" s="37">
         <v>2</v>
       </c>
       <c r="F6" s="37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="10"/>
@@ -7051,7 +7082,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -7929,7 +7960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8020,7 +8053,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8061,9 +8094,15 @@
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>2</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="12"/>
       <c r="I5" s="36"/>
@@ -8086,7 +8125,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -8450,7 +8489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8541,7 +8582,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8619,7 +8660,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -8629,9 +8670,15 @@
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="38">
+        <v>7</v>
+      </c>
+      <c r="F7" s="38">
+        <v>7</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cormac\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>Team</t>
   </si>
@@ -252,9 +252,6 @@
     <t>project plan web UI</t>
   </si>
   <si>
-    <t>php edit/delete buttons</t>
-  </si>
-  <si>
     <t>web application test doc</t>
   </si>
   <si>
@@ -291,20 +288,29 @@
     <t>writing html</t>
   </si>
   <si>
-    <t>java</t>
+    <t>vershion testing</t>
   </si>
   <si>
-    <t>data addition</t>
+    <t>data entry</t>
   </si>
   <si>
-    <t>php</t>
+    <t>php website</t>
+  </si>
+  <si>
+    <t>sql export</t>
+  </si>
+  <si>
+    <t>final doc curetion</t>
+  </si>
+  <si>
+    <t>Cureation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -342,8 +348,28 @@
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +398,16 @@
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -770,12 +806,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -820,7 +858,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -867,20 +904,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2208,7 +2256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2228,14 +2278,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2286,14 +2336,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2321,14 +2371,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2354,14 +2404,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2409,11 +2459,11 @@
       </c>
       <c r="B11" s="21">
         <f>'Abdullah Alkhashty'!$J$6</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="22">
         <f t="shared" ref="C11:C22" si="0">$H$7-B11:B11</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
@@ -2427,11 +2477,11 @@
       </c>
       <c r="B12" s="26">
         <f>'Au, Yee Tim'!$J$6</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="24"/>
@@ -2445,11 +2495,11 @@
       </c>
       <c r="B13" s="28">
         <f>'Calvin Chan'!$J$6</f>
-        <v>8.25</v>
+        <v>22.25</v>
       </c>
       <c r="C13" s="29">
         <f t="shared" si="0"/>
-        <v>71.75</v>
+        <v>57.75</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24"/>
@@ -2463,11 +2513,11 @@
       </c>
       <c r="B14" s="26">
         <f>'Cormac Brady'!$J$6</f>
-        <v>44.75</v>
+        <v>64.75</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>35.25</v>
+        <v>15.25</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="24"/>
@@ -2481,11 +2531,11 @@
       </c>
       <c r="B15" s="28">
         <f>'Henry Hollingsworth'!$J$6</f>
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C15" s="29">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24"/>
@@ -2535,11 +2585,11 @@
       </c>
       <c r="B18" s="26">
         <f>'Karl Franks'!$J$6</f>
-        <v>14.5</v>
+        <v>30.5</v>
       </c>
       <c r="C18" s="27">
         <f t="shared" si="0"/>
-        <v>65.5</v>
+        <v>49.5</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="24"/>
@@ -2548,18 +2598,18 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="59">
         <f>'Kieran Lynch'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="60">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="24"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -2571,11 +2621,11 @@
       </c>
       <c r="B20" s="26">
         <f>'Melissa Smith'!$J$6</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20" s="27">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="24"/>
@@ -2589,29 +2639,29 @@
       </c>
       <c r="B21" s="28">
         <f>'Scott Lockett'!$J$6</f>
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="C21" s="29">
         <f t="shared" si="0"/>
-        <v>72.7</v>
-      </c>
-      <c r="D21" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D21" s="50"/>
       <c r="E21" s="24"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="26">
         <f>'Zach Yewman'!$J$6</f>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C22" s="27">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="24"/>
@@ -2620,10 +2670,10 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2631,6 +2681,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2639,12 +2695,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -2662,10 +2712,527 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24.59765625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="23" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="46" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8" style="46" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="27">
+        <v>2</v>
+      </c>
+      <c r="F3" s="27">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM(F2:F29)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(C2:C29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6">
+        <f>M3*Task_Table!H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM(J3,M4)</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
     <col min="1" max="1" width="24.59765625" style="47" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="47" customWidth="1"/>
     <col min="3" max="3" width="10.09765625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="23" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="47" customWidth="1"/>
     <col min="5" max="5" width="13.3984375" style="47" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" style="47" customWidth="1"/>
     <col min="7" max="8" width="6.59765625" style="47" customWidth="1"/>
@@ -2696,24 +3263,30 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.25</v>
+      </c>
       <c r="D2" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -2721,35 +3294,35 @@
       <c r="F2" s="22">
         <v>1</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="27">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -2757,17 +3330,23 @@
       </c>
       <c r="M3" s="6">
         <f>SUM(C2:C29)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2777,52 +3356,64 @@
       </c>
       <c r="M4" s="6">
         <f>M3*Task_Table!H5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>7</v>
+      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="36">
+        <v>10</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2831,13 +3422,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2846,13 +3437,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -2861,13 +3452,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2876,13 +3467,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2891,13 +3482,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2906,13 +3497,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2921,13 +3512,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -2936,13 +3527,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -2951,13 +3542,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -2966,13 +3557,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2981,13 +3572,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2996,13 +3587,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3011,13 +3602,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3026,13 +3617,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3041,13 +3632,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3056,13 +3647,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3071,13 +3662,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3086,13 +3677,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3101,13 +3692,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3116,13 +3707,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -3131,13 +3722,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3146,13 +3737,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -3169,12 +3760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3182,7 +3773,7 @@
     <col min="1" max="1" width="24.59765625" style="48" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="48" customWidth="1"/>
     <col min="3" max="3" width="10.09765625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="13.3984375" style="48" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" style="48" customWidth="1"/>
     <col min="7" max="8" width="6.59765625" style="48" customWidth="1"/>
@@ -3213,30 +3804,24 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="22">
-        <v>0.25</v>
-      </c>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -3244,35 +3829,35 @@
       <c r="F2" s="22">
         <v>1</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -3280,23 +3865,23 @@
       </c>
       <c r="M3" s="6">
         <f>SUM(C2:C29)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="29" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E4" s="29">
-        <v>2</v>
-      </c>
-      <c r="F4" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="F4" s="36">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3306,58 +3891,58 @@
       </c>
       <c r="M4" s="6">
         <f>M3*Task_Table!H5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="38">
-        <v>4</v>
-      </c>
-      <c r="G5" s="34"/>
+      <c r="F5" s="37">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3366,13 +3951,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3381,13 +3966,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3396,13 +3981,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3411,13 +3996,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3426,13 +4011,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3441,13 +4026,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -3456,13 +4041,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3471,13 +4056,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3486,13 +4071,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3501,13 +4086,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -3516,13 +4101,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3531,13 +4116,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3546,13 +4131,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3561,13 +4146,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3576,13 +4161,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3591,13 +4176,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3606,13 +4191,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3621,13 +4206,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3636,13 +4221,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3651,13 +4236,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -3666,13 +4251,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3681,13 +4266,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -3704,12 +4289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3717,7 +4302,7 @@
     <col min="1" max="1" width="24.59765625" style="49" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="49" customWidth="1"/>
     <col min="3" max="3" width="10.09765625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="49" customWidth="1"/>
     <col min="5" max="5" width="13.3984375" style="49" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" style="49" customWidth="1"/>
     <col min="7" max="8" width="6.59765625" style="49" customWidth="1"/>
@@ -3748,60 +4333,60 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="22">
-        <v>1</v>
-      </c>
-      <c r="G2" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3" s="27">
         <v>5</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>7.3</v>
+        <v>51</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -3813,19 +4398,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="29" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="G4" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <v>42</v>
+      </c>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3839,48 +4424,48 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>7.3</v>
+        <v>51</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3889,13 +4474,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3904,13 +4489,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3919,13 +4504,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3934,13 +4519,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3949,13 +4534,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3964,13 +4549,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -3979,13 +4564,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3994,13 +4579,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -4009,13 +4594,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4024,13 +4609,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -4039,13 +4624,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -4054,13 +4639,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4069,13 +4654,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4084,13 +4669,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -4099,13 +4684,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4114,13 +4699,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -4129,13 +4714,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4144,13 +4729,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4159,13 +4744,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4174,13 +4759,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4189,13 +4774,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4204,536 +4789,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.59765625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="50" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="50" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="8" style="50" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="22">
-        <v>2</v>
-      </c>
-      <c r="F2" s="22">
-        <v>4</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="27">
-        <v>10</v>
-      </c>
-      <c r="F3" s="27">
-        <v>5</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6">
-        <f>SUM(F2:F29)</f>
-        <v>22</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM(C2:C29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="29">
-        <v>2</v>
-      </c>
-      <c r="F4" s="29">
-        <v>13</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6">
-        <f>M3*Task_Table!H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="6">
-        <f>SUM(J3,M4)</f>
-        <v>22</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -4755,24 +4817,24 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="33" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8" style="33" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="8" style="32" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,7 +4856,7 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -4825,13 +4887,13 @@
       <c r="F2" s="22">
         <v>2</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -4852,14 +4914,14 @@
       <c r="F3" s="27">
         <v>1.5</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>20.75</v>
+        <v>40.75</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -4871,9 +4933,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
@@ -4883,7 +4945,7 @@
       <c r="F4" s="29">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4897,9 +4959,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="27" t="s">
         <v>46</v>
       </c>
@@ -4909,18 +4971,18 @@
       <c r="F5" s="27">
         <v>4</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="29" t="s">
         <v>47</v>
       </c>
@@ -4930,23 +4992,23 @@
       <c r="F6" s="29">
         <v>1</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>44.75</v>
+        <v>64.75</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="27" t="s">
         <v>49</v>
       </c>
@@ -4956,7 +5018,7 @@
       <c r="F7" s="27">
         <v>0.25</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -4965,9 +5027,9 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="29" t="s">
         <v>50</v>
       </c>
@@ -4977,7 +5039,7 @@
       <c r="F8" s="29">
         <v>2</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4986,9 +5048,9 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="27" t="s">
         <v>51</v>
       </c>
@@ -4998,7 +5060,7 @@
       <c r="F9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5007,9 +5069,9 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="29" t="s">
         <v>52</v>
       </c>
@@ -5017,9 +5079,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="29">
-        <v>7</v>
-      </c>
-      <c r="G10" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5028,13 +5090,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5043,13 +5105,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5058,13 +5120,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -5073,13 +5135,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5088,13 +5150,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -5103,13 +5165,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5118,13 +5180,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -5133,13 +5195,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -5148,13 +5210,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -5163,13 +5225,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5178,13 +5240,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -5193,13 +5255,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -5208,13 +5270,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -5223,13 +5285,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5238,13 +5300,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5253,13 +5315,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5268,13 +5330,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -5283,13 +5345,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5298,13 +5360,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5326,24 +5388,24 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="39" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="39" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="8" style="39" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="38" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="8" style="38" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5365,7 +5427,7 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -5378,9 +5440,9 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
         <v>53</v>
       </c>
@@ -5390,35 +5452,35 @@
       <c r="F2" s="22">
         <v>1</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="37">
         <v>2</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <v>2</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -5430,19 +5492,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>2</v>
-      </c>
-      <c r="G4" s="34"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5456,48 +5512,48 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5506,13 +5562,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5521,13 +5577,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5536,13 +5592,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5551,13 +5607,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5566,13 +5622,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5581,13 +5637,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -5596,13 +5652,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5611,13 +5667,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -5626,13 +5682,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5641,13 +5697,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -5656,13 +5712,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -5671,13 +5727,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -5686,13 +5742,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5701,13 +5757,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -5716,13 +5772,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -5731,13 +5787,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -5746,13 +5802,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5761,13 +5817,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5776,13 +5832,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5791,13 +5847,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -5806,13 +5862,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5821,13 +5877,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5837,7 +5893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -5849,7 +5905,548 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.59765625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="40" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8" style="40" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM(F2:F29)</f>
+        <v>28</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(C2:C29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
+        <v>3</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6">
+        <f>M3*Task_Table!H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>3</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36">
+        <v>5</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM(J3,M4)</f>
+        <v>28</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="37">
+        <v>12</v>
+      </c>
+      <c r="F7" s="37">
+        <v>12</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5857,7 +6454,7 @@
     <col min="1" max="1" width="24.59765625" style="41" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="41" customWidth="1"/>
     <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="41" customWidth="1"/>
     <col min="5" max="5" width="13.3984375" style="41" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" style="41" customWidth="1"/>
     <col min="7" max="8" width="6.59765625" style="41" customWidth="1"/>
@@ -5888,60 +6485,60 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="22">
         <v>2</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="27">
-        <v>3</v>
-      </c>
-      <c r="G3" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>17</v>
+        <v>22.25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -5953,19 +6550,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E4" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="29">
-        <v>3</v>
-      </c>
-      <c r="G4" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5979,60 +6576,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E5" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="27">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34"/>
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="29" t="s">
-        <v>58</v>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="37">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F6" s="37">
-        <v>6</v>
-      </c>
-      <c r="G6" s="34"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>17</v>
+        <v>22.25</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -6041,13 +6638,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6056,13 +6653,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -6071,13 +6668,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -6086,13 +6683,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -6101,13 +6698,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -6116,13 +6713,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -6131,13 +6728,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -6146,13 +6743,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -6161,13 +6758,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -6176,13 +6773,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -6191,13 +6788,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -6206,13 +6803,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -6221,13 +6818,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -6236,13 +6833,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -6251,13 +6848,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -6266,13 +6863,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6281,13 +6878,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -6296,13 +6893,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -6311,13 +6908,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -6326,13 +6923,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -6341,13 +6938,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6356,542 +6953,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.59765625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="42" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="42" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="8" style="42" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="22">
-        <v>2</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="27">
-        <v>2</v>
-      </c>
-      <c r="F3" s="27">
-        <v>3</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6">
-        <f>SUM(F2:F29)</f>
-        <v>8.25</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM(C2:C29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="29">
-        <v>2</v>
-      </c>
-      <c r="F4" s="29">
-        <v>2</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6">
-        <f>M3*Task_Table!H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="27">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27">
-        <v>1.25</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="6">
-        <f>SUM(J3,M4)</f>
-        <v>8.25</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -6913,23 +6981,23 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="43" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="8" style="43" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="42" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="42" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="8" style="42" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6951,7 +7019,7 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -6964,9 +7032,9 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
         <v>63</v>
       </c>
@@ -6976,18 +7044,18 @@
       <c r="F2" s="22">
         <v>2</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="27" t="s">
         <v>64</v>
       </c>
@@ -6997,14 +7065,14 @@
       <c r="F3" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -7016,9 +7084,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="29" t="s">
         <v>65</v>
       </c>
@@ -7026,9 +7094,9 @@
         <v>10</v>
       </c>
       <c r="F4" s="29">
-        <v>9</v>
-      </c>
-      <c r="G4" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7042,9 +7110,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="27" t="s">
         <v>51</v>
       </c>
@@ -7054,48 +7122,48 @@
       <c r="F5" s="27">
         <v>2</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="37">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="36">
         <v>2</v>
       </c>
-      <c r="F6" s="37">
-        <v>12</v>
-      </c>
-      <c r="G6" s="34"/>
+      <c r="F6" s="36">
+        <v>5</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7104,13 +7172,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -7119,13 +7187,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -7134,13 +7202,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7149,13 +7217,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7164,13 +7232,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -7179,13 +7247,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -7194,13 +7262,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -7209,13 +7277,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7224,13 +7292,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7239,13 +7307,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -7254,13 +7322,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -7269,13 +7337,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -7284,13 +7352,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -7299,13 +7367,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -7314,13 +7382,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -7329,13 +7397,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -7344,13 +7412,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -7359,13 +7427,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -7374,13 +7442,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -7389,13 +7457,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -7404,13 +7472,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7419,13 +7487,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -7450,18 +7518,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="44" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="44" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="8" style="44" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="43" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="43" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="8" style="43" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7483,7 +7551,7 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -7514,22 +7582,22 @@
       <c r="F2" s="22">
         <v>2</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -7548,13 +7616,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7568,28 +7636,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -7603,13 +7671,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7618,13 +7686,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -7633,13 +7701,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -7648,13 +7716,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7663,13 +7731,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7678,13 +7746,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -7693,13 +7761,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -7708,13 +7776,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -7723,13 +7791,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7738,13 +7806,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7753,13 +7821,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -7768,13 +7836,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -7783,13 +7851,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -7798,13 +7866,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -7813,13 +7881,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -7828,13 +7896,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -7843,13 +7911,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -7858,13 +7926,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -7873,13 +7941,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -7888,13 +7956,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -7903,13 +7971,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -7918,13 +7986,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7933,13 +8001,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -7961,7 +8029,536 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.59765625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="44" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="8" style="44" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM(F2:F29)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(C2:C29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="36">
+        <v>3</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6">
+        <f>M3*Task_Table!H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>2</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM(J3,M4)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7969,7 +8566,7 @@
     <col min="1" max="1" width="24.59765625" style="45" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="45" customWidth="1"/>
     <col min="3" max="3" width="10.09765625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="22" style="45" customWidth="1"/>
     <col min="5" max="5" width="13.3984375" style="45" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" style="45" customWidth="1"/>
     <col min="7" max="8" width="6.59765625" style="45" customWidth="1"/>
@@ -8000,60 +8597,60 @@
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>3</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="27">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27">
         <v>2</v>
       </c>
-      <c r="F2" s="22">
-        <v>1</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>6.5</v>
+        <v>30.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8065,19 +8662,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>3</v>
-      </c>
-      <c r="G4" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -8091,54 +8688,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="38">
-        <v>2</v>
-      </c>
-      <c r="G5" s="34"/>
+      <c r="F5" s="37">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="36">
+        <v>5</v>
+      </c>
+      <c r="F6" s="36">
+        <v>24</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>6.5</v>
+        <v>30.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -8147,13 +8750,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -8162,13 +8765,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -8177,13 +8780,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -8192,13 +8795,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8207,13 +8810,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -8222,13 +8825,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -8237,13 +8840,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -8252,13 +8855,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -8267,13 +8870,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -8282,13 +8885,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -8297,13 +8900,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -8312,13 +8915,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -8327,13 +8930,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -8342,13 +8945,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -8357,13 +8960,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -8372,13 +8975,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -8387,13 +8990,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -8402,13 +9005,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -8417,13 +9020,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8432,13 +9035,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8447,13 +9050,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8462,554 +9065,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.59765625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="22" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="46" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8" style="46" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22">
-        <v>3</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="27">
-        <v>3</v>
-      </c>
-      <c r="F3" s="27">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6">
-        <f>SUM(F2:F29)</f>
-        <v>14.5</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM(C2:C29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6">
-        <f>M3*Task_Table!H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="37">
-        <v>1</v>
-      </c>
-      <c r="F6" s="37">
-        <v>1</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="6">
-        <f>SUM(J3,M4)</f>
-        <v>14.5</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="38">
-        <v>7</v>
-      </c>
-      <c r="F7" s="38">
-        <v>7</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cormac\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,12 @@
     <sheet name="Scott Lockett" sheetId="12" r:id="rId12"/>
     <sheet name="Zach Yewman" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -907,24 +907,24 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -932,7 +932,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2257,20 +2257,20 @@
   <dimension ref="A1:IV23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="1" customWidth="1"/>
-    <col min="9" max="256" width="6.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2278,17 +2278,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2332,110 +2332,110 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="53">
+      <c r="D5" s="59">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53">
+      <c r="E5" s="60"/>
+      <c r="F5" s="59">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="53">
+      <c r="D7" s="59">
         <v>40</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53">
+      <c r="E7" s="60"/>
+      <c r="F7" s="59">
         <v>40</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="53">
+      <c r="D9" s="59">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53">
+      <c r="E9" s="60"/>
+      <c r="F9" s="59">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
@@ -2543,17 +2543,16 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="26">
-        <f>'Rhys Howard'!$J$6</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="24"/>
@@ -2561,7 +2560,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
@@ -2579,7 +2578,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
@@ -2597,25 +2596,25 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A19" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="55">
         <f>'Kieran Lynch'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="56">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="24"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>28</v>
       </c>
@@ -2651,7 +2650,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
@@ -2669,7 +2668,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -2681,12 +2680,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2695,12 +2688,23 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2710,24 +2714,24 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="46" customWidth="1"/>
     <col min="4" max="4" width="23" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="46" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="46" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="46" customWidth="1"/>
     <col min="13" max="13" width="8" style="46" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="46" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -2758,7 +2762,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2779,7 +2783,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2810,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -2830,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2845,7 +2849,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -2865,7 +2869,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -2880,7 +2884,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -2895,7 +2899,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -2910,7 +2914,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -2925,7 +2929,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -2940,7 +2944,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -2955,7 +2959,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -2970,7 +2974,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2985,7 +2989,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3000,7 +3004,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3015,7 +3019,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -3030,7 +3034,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3045,7 +3049,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -3060,7 +3064,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3075,7 +3079,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3090,7 +3094,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3105,7 +3109,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -3120,7 +3124,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3135,7 +3139,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -3150,7 +3154,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -3165,7 +3169,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -3180,7 +3184,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3195,7 +3199,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -3216,6 +3220,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3227,24 +3236,24 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="47" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="47" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="47" customWidth="1"/>
     <col min="13" max="13" width="8" style="47" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="47" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -3275,7 +3284,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -3302,7 +3311,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -3333,7 +3342,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3359,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -3380,7 +3389,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -3406,7 +3415,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3421,7 +3430,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -3436,7 +3445,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3451,7 +3460,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -3466,7 +3475,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3481,7 +3490,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3496,7 +3505,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -3511,7 +3520,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3526,7 +3535,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3541,7 +3550,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3556,7 +3565,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -3571,7 +3580,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3586,7 +3595,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -3601,7 +3610,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3616,7 +3625,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3631,7 +3640,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3646,7 +3655,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -3661,7 +3670,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3676,7 +3685,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -3691,7 +3700,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -3706,7 +3715,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -3721,7 +3730,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3736,7 +3745,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -3757,6 +3766,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3768,24 +3782,24 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="48" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="48" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="48" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="48" customWidth="1"/>
     <col min="13" max="13" width="8" style="48" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="48" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -3816,7 +3830,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -3837,7 +3851,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -3868,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3894,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -3915,7 +3929,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -3935,7 +3949,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3950,7 +3964,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -3965,7 +3979,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3980,7 +3994,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -3995,7 +4009,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4010,7 +4024,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -4025,7 +4039,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -4040,7 +4054,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4055,7 +4069,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -4070,7 +4084,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4085,7 +4099,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -4100,7 +4114,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4115,7 +4129,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4130,7 +4144,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4145,7 +4159,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4160,7 +4174,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4175,7 +4189,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -4190,7 +4204,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4205,7 +4219,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -4220,7 +4234,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4235,7 +4249,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -4250,7 +4264,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4265,7 +4279,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -4286,6 +4300,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4297,24 +4316,24 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="49" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="49" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="49" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="49" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
     <col min="13" max="13" width="8" style="49" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="49" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -4345,7 +4364,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -4366,7 +4385,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -4397,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4423,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -4438,7 +4457,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -4458,7 +4477,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -4473,7 +4492,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -4488,7 +4507,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -4503,7 +4522,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -4518,7 +4537,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4533,7 +4552,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -4548,7 +4567,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -4563,7 +4582,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4578,7 +4597,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -4593,7 +4612,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4608,7 +4627,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -4623,7 +4642,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4638,7 +4657,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4653,7 +4672,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4668,7 +4687,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4683,7 +4702,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4698,7 +4717,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -4713,7 +4732,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4728,7 +4747,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -4743,7 +4762,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4758,7 +4777,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -4773,7 +4792,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4788,7 +4807,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -4809,6 +4828,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4820,24 +4844,24 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="32" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="32" customWidth="1"/>
     <col min="13" max="13" width="8" style="32" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="32" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -4868,7 +4892,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -4895,7 +4919,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
@@ -4932,7 +4956,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4958,7 +4982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -4979,7 +5003,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -5005,7 +5029,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -5026,7 +5050,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -5047,7 +5071,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5068,7 +5092,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -5089,7 +5113,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -5104,7 +5128,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -5119,7 +5143,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -5134,7 +5158,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -5149,7 +5173,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -5164,7 +5188,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -5179,7 +5203,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5194,7 +5218,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -5209,7 +5233,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -5224,7 +5248,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5239,7 +5263,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -5254,7 +5278,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5269,7 +5293,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -5284,7 +5308,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -5299,7 +5323,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -5314,7 +5338,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -5329,7 +5353,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -5344,7 +5368,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5359,7 +5383,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -5380,6 +5404,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5391,24 +5420,24 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="38" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="38" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="38" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="38" customWidth="1"/>
     <col min="13" max="13" width="8" style="38" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="38" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -5439,7 +5468,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -5460,7 +5489,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -5491,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5511,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -5526,7 +5555,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -5546,7 +5575,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -5561,7 +5590,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -5576,7 +5605,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5591,7 +5620,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -5606,7 +5635,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -5621,7 +5650,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -5636,7 +5665,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -5651,7 +5680,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -5666,7 +5695,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -5681,7 +5710,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -5696,7 +5725,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5711,7 +5740,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -5726,7 +5755,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -5741,7 +5770,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5756,7 +5785,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -5771,7 +5800,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5786,7 +5815,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -5801,7 +5830,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -5816,7 +5845,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -5831,7 +5860,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -5846,7 +5875,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -5861,7 +5890,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5876,7 +5905,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -5893,10 +5922,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5908,24 +5942,24 @@
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="40" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="40" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="40" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="40" customWidth="1"/>
     <col min="13" max="13" width="8" style="40" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="40" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -5956,7 +5990,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -5977,7 +6011,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -6008,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6034,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6055,7 +6089,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -6081,7 +6115,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -6102,7 +6136,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6117,7 +6151,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -6132,7 +6166,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -6147,7 +6181,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -6162,7 +6196,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -6177,7 +6211,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6192,7 +6226,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -6207,7 +6241,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6222,7 +6256,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -6237,7 +6271,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6252,7 +6286,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -6267,7 +6301,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6282,7 +6316,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -6297,7 +6331,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6312,7 +6346,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -6327,7 +6361,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6342,7 +6376,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -6357,7 +6391,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6372,7 +6406,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -6387,7 +6421,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -6402,7 +6436,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6417,7 +6451,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -6438,6 +6472,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6449,24 +6488,24 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="41" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="41" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="41" customWidth="1"/>
     <col min="13" max="13" width="8" style="41" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="41" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -6497,7 +6536,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -6518,7 +6557,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -6549,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6575,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6596,7 +6635,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -6622,7 +6661,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -6637,7 +6676,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6652,7 +6691,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -6667,7 +6706,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -6682,7 +6721,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -6697,7 +6736,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -6712,7 +6751,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6727,7 +6766,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -6742,7 +6781,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6757,7 +6796,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -6772,7 +6811,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6787,7 +6826,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -6802,7 +6841,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6817,7 +6856,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -6832,7 +6871,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6847,7 +6886,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -6862,7 +6901,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6877,7 +6916,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -6892,7 +6931,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6907,7 +6946,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -6922,7 +6961,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -6937,7 +6976,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6952,7 +6991,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -6973,6 +7012,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6984,23 +7028,23 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="42" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="42" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="42" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="42" customWidth="1"/>
+    <col min="9" max="10" width="14.625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="42" customWidth="1"/>
     <col min="13" max="13" width="8" style="42" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="42" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -7031,7 +7075,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -7052,7 +7096,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -7083,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -7109,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -7130,7 +7174,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -7156,7 +7200,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -7171,7 +7215,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -7186,7 +7230,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -7201,7 +7245,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -7216,7 +7260,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -7231,7 +7275,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -7246,7 +7290,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -7261,7 +7305,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -7276,7 +7320,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -7291,7 +7335,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7306,7 +7350,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -7321,7 +7365,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -7336,7 +7380,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -7351,7 +7395,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -7366,7 +7410,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -7381,7 +7425,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -7396,7 +7440,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -7411,7 +7455,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -7426,7 +7470,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -7441,7 +7485,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -7456,7 +7500,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -7471,7 +7515,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -7486,7 +7530,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7507,6 +7551,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7516,23 +7565,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="43" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="43" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="43" customWidth="1"/>
+    <col min="9" max="10" width="14.625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="43" customWidth="1"/>
     <col min="13" max="13" width="8" style="43" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="43" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -7563,7 +7612,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
@@ -7590,7 +7639,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -7615,7 +7664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -7635,7 +7684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -7650,7 +7699,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -7670,7 +7719,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -7685,7 +7734,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -7700,7 +7749,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -7715,7 +7764,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -7730,7 +7779,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -7745,7 +7794,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -7760,7 +7809,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -7775,7 +7824,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -7790,7 +7839,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -7805,7 +7854,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7820,7 +7869,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -7835,7 +7884,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -7850,7 +7899,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -7865,7 +7914,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -7880,7 +7929,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -7895,7 +7944,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -7910,7 +7959,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -7925,7 +7974,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -7940,7 +7989,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -7955,7 +8004,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -7970,7 +8019,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -7985,7 +8034,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -8000,7 +8049,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8021,6 +8070,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8032,24 +8086,24 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="44" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="44" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="44" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="44" customWidth="1"/>
     <col min="13" max="13" width="8" style="44" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="44" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -8080,7 +8134,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -8101,7 +8155,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -8132,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8158,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -8179,7 +8233,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8199,7 +8253,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -8214,7 +8268,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -8229,7 +8283,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -8244,7 +8298,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -8259,7 +8313,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -8274,7 +8328,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -8289,7 +8343,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8304,7 +8358,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -8319,7 +8373,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -8334,7 +8388,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -8349,7 +8403,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -8364,7 +8418,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -8379,7 +8433,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -8394,7 +8448,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -8409,7 +8463,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -8424,7 +8478,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -8439,7 +8493,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -8454,7 +8508,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -8469,7 +8523,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8484,7 +8538,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -8499,7 +8553,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -8514,7 +8568,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -8529,7 +8583,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8550,6 +8604,11 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8561,24 +8620,24 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="45" customWidth="1"/>
     <col min="4" max="4" width="22" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="45" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="45" customWidth="1"/>
     <col min="13" max="13" width="8" style="45" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="45" customWidth="1"/>
+    <col min="14" max="256" width="6.625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -8609,7 +8668,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.5" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -8630,7 +8689,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -8661,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8687,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -8708,7 +8767,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8734,7 +8793,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -8749,7 +8808,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -8764,7 +8823,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -8779,7 +8838,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -8794,7 +8853,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -8809,7 +8868,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -8824,7 +8883,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8839,7 +8898,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -8854,7 +8913,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -8869,7 +8928,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -8884,7 +8943,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -8899,7 +8958,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -8914,7 +8973,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -8929,7 +8988,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -8944,7 +9003,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -8959,7 +9018,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -8974,7 +9033,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -8989,7 +9048,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -9004,7 +9063,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -9019,7 +9078,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -9034,7 +9093,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -9049,7 +9108,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -9064,7 +9123,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -9085,5 +9144,10 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -1012,19 +1012,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2493,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2515,14 +2515,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,14 +2573,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2593,12 +2593,12 @@
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="65">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2608,14 +2608,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="63" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2627,11 +2627,11 @@
       <c r="D7" s="65">
         <v>40</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="65">
         <v>40</v>
       </c>
-      <c r="G7" s="66"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2641,14 +2641,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="63" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2657,16 +2657,16 @@
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="67">
+      <c r="D9" s="63">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="65">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
@@ -2821,11 +2821,11 @@
       </c>
       <c r="B18" s="16">
         <f>'Karl Franks'!$J$6</f>
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="0"/>
-        <v>49.5</v>
+        <v>43.5</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="55"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B23" s="58">
         <f>SUM(Table1[Time Spent])</f>
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -2926,11 +2926,17 @@
       </c>
       <c r="B24" s="58">
         <f>AVERAGE(Table1[Time Spent])</f>
-        <v>25.916666666666668</v>
+        <v>26.416666666666668</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2939,12 +2945,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B22">
     <cfRule type="colorScale" priority="2">
@@ -8908,8 +8908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -9070,7 +9070,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="24">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="10"/>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="97">
   <si>
     <t>Team</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Training Abdullah - EXTRA WORK</t>
   </si>
   <si>
-    <t>gihub QA - EXTRA WORK</t>
-  </si>
-  <si>
     <t>requirements progress</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>final doc curetion</t>
   </si>
   <si>
-    <t>Cureation</t>
-  </si>
-  <si>
     <t>various document sections</t>
   </si>
   <si>
@@ -322,12 +316,24 @@
   <si>
     <t>avrage hours</t>
   </si>
+  <si>
+    <t>Curation</t>
+  </si>
+  <si>
+    <t>gihub issues tracking</t>
+  </si>
+  <si>
+    <t>project plan desin redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note as agreed in group meetings. Less than 20 hours at end of project is condishion for a review buy the group leader for a yellow card </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -385,8 +391,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
@@ -427,8 +434,32 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -775,32 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
@@ -898,15 +903,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -929,7 +1077,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -979,53 +1126,87 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1237,6 +1418,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D22" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A10:D22"/>
+  <sortState ref="A11:D22">
+    <sortCondition descending="1" ref="B10:B22"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Member"/>
     <tableColumn id="2" name="Time Spent" dataDxfId="2"/>
@@ -2491,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV24"/>
+  <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2691,7 @@
     <col min="9" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2515,17 +2699,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2731,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2569,374 +2753,424 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="65">
+      <c r="D5" s="51">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65">
+      <c r="E5" s="52"/>
+      <c r="F5" s="51">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="67"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="65">
+      <c r="D7" s="51">
         <v>40</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65">
+      <c r="E7" s="52"/>
+      <c r="F7" s="51">
         <v>40</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="63">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="53">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65">
+      <c r="E9" s="52"/>
+      <c r="F9" s="51">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="55">
+        <f>'Cormac Brady'!$J$6</f>
+        <v>68.75</v>
+      </c>
+      <c r="C11" s="57">
+        <f>$H$7-B11:B11</f>
+        <v>11.25</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="17">
+        <f>'Henry Hollingsworth'!$J$6</f>
+        <v>58</v>
+      </c>
+      <c r="C12" s="18">
+        <f>$H$7-B12:B12</f>
+        <v>22</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15">
+        <f>'Zach Yewman'!$J$6</f>
+        <v>51</v>
+      </c>
+      <c r="C13" s="16">
+        <f>$H$7-B13:B13</f>
+        <v>29</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15">
+        <f>'Au, Yee Tim'!$J$6</f>
+        <v>45</v>
+      </c>
+      <c r="C14" s="16">
+        <f>$H$7-B14:B14</f>
+        <v>35</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="17">
+        <f>'Calvin Chan'!$J$6</f>
+        <v>42.25</v>
+      </c>
+      <c r="C15" s="18">
+        <f>$H$7-B15:B15</f>
+        <v>37.75</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="15">
+        <f>'Karl Franks'!$J$6</f>
+        <v>36.5</v>
+      </c>
+      <c r="C16" s="16">
+        <f>$H$7-B16:B16</f>
+        <v>43.5</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15">
+        <f>'Melissa Smith'!$J$6</f>
+        <v>24</v>
+      </c>
+      <c r="C17" s="16">
+        <f>$H$7-B17:B17</f>
+        <v>56</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15">
+        <f>'Rhys Howard'!$J$6</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="16">
+        <f>$H$7-B18:B18</f>
+        <v>69</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="17">
+        <f>'James Portch'!$J$6</f>
+        <v>10.5</v>
+      </c>
+      <c r="C19" s="18">
+        <f>$H$7-B19:B19</f>
+        <v>69.5</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="17">
+        <f>'Scott Lockett'!$J$6</f>
+        <v>8</v>
+      </c>
+      <c r="C20" s="18">
+        <f>$H$7-B20:B20</f>
+        <v>72</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B21" s="17">
         <f>'Abdullah Alkhashty'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C11" s="15">
-        <f t="shared" ref="C11:C22" si="0">$H$7-B11:B11</f>
+      <c r="C21" s="18">
+        <f>$H$7-B21:B21</f>
         <v>77</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="16">
-        <f>'Au, Yee Tim'!$J$6</f>
-        <v>28</v>
-      </c>
-      <c r="C12" s="17">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="18">
-        <f>'Calvin Chan'!$J$6</f>
-        <v>22.25</v>
-      </c>
-      <c r="C13" s="19">
-        <f t="shared" si="0"/>
-        <v>57.75</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="16">
-        <f>'Cormac Brady'!$J$6</f>
-        <v>68.75</v>
-      </c>
-      <c r="C14" s="17">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="18">
-        <f>'Henry Hollingsworth'!$J$6</f>
-        <v>48</v>
-      </c>
-      <c r="C15" s="19">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="16">
-        <v>18</v>
-      </c>
-      <c r="C16" s="17">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="18">
-        <f>'James Portch'!$J$6</f>
-        <v>6.5</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="16">
-        <f>'Karl Franks'!$J$6</f>
-        <v>36.5</v>
-      </c>
-      <c r="C18" s="17">
-        <f t="shared" si="0"/>
-        <v>43.5</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B22" s="56">
         <f>'Kieran Lynch'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C19" s="41">
-        <f t="shared" si="0"/>
+      <c r="C22" s="58">
+        <f>$H$7-B22:B22</f>
         <v>77</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="16">
-        <f>'Melissa Smith'!$J$6</f>
-        <v>24</v>
-      </c>
-      <c r="C20" s="17">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="18">
-        <f>'Scott Lockett'!$J$6</f>
-        <v>8</v>
-      </c>
-      <c r="C21" s="19">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="51">
-        <f>'Zach Yewman'!$J$6</f>
-        <v>51</v>
-      </c>
-      <c r="C22" s="52">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="58">
+      <c r="D22" s="59"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="44">
         <f>SUM(Table1[Time Spent])</f>
-        <v>317</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="58">
+        <v>361</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="44">
         <f>AVERAGE(Table1[Time Spent])</f>
-        <v>26.416666666666668</v>
-      </c>
+        <v>30.083333333333332</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="15">
+    <mergeCell ref="F11:H23"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2945,6 +3179,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B22">
     <cfRule type="colorScale" priority="2">
@@ -2971,12 +3211,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2994,19 +3234,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="23" style="34" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="34" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="34" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="8" style="34" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="23" style="33" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="33" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8" style="33" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3268,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -3041,40 +3281,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -3093,13 +3333,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3113,28 +3353,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -3148,13 +3388,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3163,13 +3403,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3178,13 +3418,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3193,13 +3433,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3208,13 +3448,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3223,13 +3463,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3238,13 +3478,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -3253,13 +3493,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3268,13 +3508,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3283,13 +3523,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3298,13 +3538,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -3313,13 +3553,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3328,13 +3568,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3343,13 +3583,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3358,13 +3598,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3373,13 +3613,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3388,13 +3628,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3403,13 +3643,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3418,13 +3658,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3433,13 +3673,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3448,13 +3688,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -3463,13 +3703,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3478,13 +3718,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -3516,19 +3756,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="8" style="35" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="34" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="8" style="34" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3550,7 +3790,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -3563,46 +3803,46 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -3621,19 +3861,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3647,40 +3887,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>7</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="23">
         <v>10</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>10</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -3694,13 +3934,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3709,13 +3949,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3724,13 +3964,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3739,13 +3979,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3754,13 +3994,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3769,13 +4009,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3784,13 +4024,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -3799,13 +4039,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3814,13 +4054,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3829,13 +4069,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3844,13 +4084,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -3859,13 +4099,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3874,13 +4114,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3889,13 +4129,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3904,13 +4144,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3919,13 +4159,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3934,13 +4174,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3949,13 +4189,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3964,13 +4204,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3979,13 +4219,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3994,13 +4234,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4009,13 +4249,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4024,13 +4264,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -4062,19 +4302,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="36" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="36" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="8" style="36" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="8" style="35" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4096,7 +4336,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -4109,40 +4349,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -4161,19 +4401,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="18">
         <v>1</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4187,34 +4427,34 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -4228,13 +4468,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -4243,13 +4483,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4258,13 +4498,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4273,13 +4513,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4288,13 +4528,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -4303,13 +4543,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4318,13 +4558,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4333,13 +4573,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -4348,13 +4588,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -4363,13 +4603,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4378,13 +4618,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -4393,13 +4633,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -4408,13 +4648,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4423,13 +4663,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4438,13 +4678,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -4453,13 +4693,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4468,13 +4708,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -4483,13 +4723,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4498,13 +4738,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4513,13 +4753,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4528,13 +4768,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4543,13 +4783,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4558,13 +4798,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -4596,19 +4836,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="37" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="8" style="37" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="36" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="8" style="36" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,7 +4870,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -4643,40 +4883,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="15">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
-        <v>4</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -4695,19 +4935,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>42</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4721,28 +4961,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -4756,13 +4996,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -4771,13 +5011,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4786,13 +5026,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4801,13 +5041,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4816,13 +5056,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -4831,13 +5071,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4846,13 +5086,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4861,13 +5101,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -4876,13 +5116,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -4891,13 +5131,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4906,13 +5146,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -4921,13 +5161,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -4936,13 +5176,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4951,13 +5191,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4966,13 +5206,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -4981,13 +5221,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4996,13 +5236,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -5011,13 +5251,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5026,13 +5266,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5041,13 +5281,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5056,13 +5296,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -5071,13 +5311,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5086,13 +5326,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5119,24 +5359,24 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="20" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="8" style="20" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="19" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8" style="19" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5158,7 +5398,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -5171,52 +5411,52 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>0.5</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>1.5</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -5235,19 +5475,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>1</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5261,40 +5501,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="19" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -5308,19 +5548,19 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>0.25</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5329,19 +5569,19 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="19" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>2</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5350,19 +5590,19 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5371,19 +5611,19 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="19" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>27</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5392,19 +5632,19 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="24">
         <v>1</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>4</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5413,13 +5653,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5428,13 +5668,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -5443,13 +5683,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5458,13 +5698,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -5473,13 +5713,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5488,13 +5728,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -5503,13 +5743,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -5518,13 +5758,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -5533,13 +5773,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5548,13 +5788,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -5563,13 +5803,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -5578,13 +5818,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -5593,13 +5833,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5608,13 +5848,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5623,13 +5863,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5638,13 +5878,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -5653,13 +5893,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5668,13 +5908,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5706,19 +5946,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="26" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="26" customWidth="1"/>
-    <col min="13" max="13" width="8" style="26" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="25" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="8" style="25" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,7 +5980,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -5753,40 +5993,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>0.3</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="24">
         <v>2</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -5805,13 +6045,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5825,28 +6065,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -5860,13 +6100,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5875,13 +6115,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5890,13 +6130,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5905,13 +6145,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5920,13 +6160,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5935,13 +6175,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5950,13 +6190,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -5965,13 +6205,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5980,13 +6220,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -5995,13 +6235,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -6010,13 +6250,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -6025,13 +6265,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -6040,13 +6280,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -6055,13 +6295,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -6070,13 +6310,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -6085,13 +6325,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -6100,13 +6340,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6115,13 +6355,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -6130,13 +6370,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -6145,13 +6385,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -6160,13 +6400,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -6175,13 +6415,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6190,13 +6430,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -6223,24 +6463,24 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="28" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="8" style="28" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="27" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8" style="27" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6502,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -6275,47 +6515,48 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>3</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -6327,19 +6568,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -6353,66 +6594,66 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="17">
-        <v>3</v>
-      </c>
-      <c r="G5" s="21"/>
+      <c r="F5" s="16">
+        <v>20</v>
+      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="23">
         <v>1</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>5</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="24">
         <v>12</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>12</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -6421,13 +6662,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6436,13 +6677,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -6451,13 +6692,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -6466,13 +6707,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -6481,13 +6722,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -6496,13 +6737,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -6511,13 +6752,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -6526,13 +6767,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -6541,13 +6782,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -6556,13 +6797,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -6571,13 +6812,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -6586,13 +6827,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -6601,13 +6842,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -6616,13 +6857,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -6631,13 +6872,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -6646,13 +6887,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6661,13 +6902,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -6676,13 +6917,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -6691,13 +6932,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -6706,13 +6947,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -6721,13 +6962,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6736,13 +6977,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -6769,24 +7010,24 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="29" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8" style="29" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="28" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="8" style="28" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6808,7 +7049,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -6821,47 +7062,47 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
-        <v>2</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>22.25</v>
+        <v>42.25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -6873,19 +7114,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -6899,60 +7140,66 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>1.25</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="24">
         <v>12</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>15</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>22.25</v>
+        <v>42.25</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>20</v>
+      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -6961,13 +7208,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6976,13 +7223,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -6991,13 +7238,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7006,13 +7253,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7021,13 +7268,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -7036,13 +7283,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -7051,13 +7298,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -7066,13 +7313,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7081,13 +7328,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7096,13 +7343,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -7111,13 +7358,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -7126,13 +7373,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -7141,13 +7388,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -7156,13 +7403,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -7171,13 +7418,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -7186,13 +7433,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -7201,13 +7448,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -7216,13 +7463,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -7231,13 +7478,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -7246,13 +7493,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -7261,13 +7508,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7276,13 +7523,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -7309,23 +7556,23 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="30" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="30" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="8" style="30" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="29" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="8" style="29" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7347,7 +7594,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -7360,47 +7607,47 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -7412,19 +7659,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="18">
         <v>10</v>
       </c>
-      <c r="F4" s="19">
-        <v>38</v>
-      </c>
-      <c r="G4" s="21"/>
+      <c r="F4" s="18">
+        <v>48</v>
+      </c>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7438,60 +7685,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="23">
         <v>2</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>5</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7500,13 +7747,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -7515,13 +7762,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -7530,13 +7777,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7545,13 +7792,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7560,13 +7807,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -7575,13 +7822,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -7590,13 +7837,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -7605,13 +7852,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7620,13 +7867,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7635,13 +7882,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -7650,13 +7897,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -7665,13 +7912,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -7680,13 +7927,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -7695,13 +7942,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -7710,13 +7957,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -7725,13 +7972,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -7740,13 +7987,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -7755,13 +8002,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -7770,13 +8017,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -7785,13 +8032,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -7800,13 +8047,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7815,13 +8062,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -7848,23 +8095,23 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="31" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="31" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="8" style="31" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="30" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="8" style="30" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7886,7 +8133,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -7899,46 +8146,46 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="24">
         <v>9</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>9</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -7957,13 +8204,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7977,28 +8224,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -8012,13 +8259,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -8027,13 +8274,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -8042,13 +8289,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -8057,13 +8304,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -8072,13 +8319,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8087,13 +8334,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -8102,13 +8349,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -8117,13 +8364,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -8132,13 +8379,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -8147,13 +8394,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -8162,13 +8409,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -8177,13 +8424,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -8192,13 +8439,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -8207,13 +8454,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -8222,13 +8469,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -8237,13 +8484,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -8252,13 +8499,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -8267,13 +8514,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -8282,13 +8529,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -8297,13 +8544,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8312,13 +8559,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8327,13 +8574,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8342,13 +8589,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8375,24 +8622,24 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="8" style="32" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="31" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="8" style="31" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8414,7 +8661,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -8427,47 +8674,47 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16">
         <v>0.5</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>0.5</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8479,19 +8726,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="23">
         <v>1</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>3</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -8505,54 +8752,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>2</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="23">
+        <v>4</v>
+      </c>
+      <c r="F6" s="23">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -8561,13 +8814,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -8576,13 +8829,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -8591,13 +8844,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -8606,13 +8859,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8621,13 +8874,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -8636,13 +8889,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -8651,13 +8904,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -8666,13 +8919,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -8681,13 +8934,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -8696,13 +8949,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -8711,13 +8964,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -8726,13 +8979,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -8741,13 +8994,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -8756,13 +9009,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -8771,13 +9024,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -8786,13 +9039,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -8801,13 +9054,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -8816,13 +9069,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -8831,13 +9084,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8846,13 +9099,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8861,13 +9114,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8876,13 +9129,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8908,25 +9161,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="22" style="33" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="33" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8" style="33" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="22" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="8" style="32" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8948,7 +9201,7 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -8961,40 +9214,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E3" s="16">
         <v>3</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="17">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -9013,19 +9266,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.1</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>0.5</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -9039,40 +9292,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="23">
         <v>5</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>30</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -9086,13 +9339,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -9101,13 +9354,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -9116,13 +9369,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -9131,13 +9384,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -9146,13 +9399,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -9161,13 +9414,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -9176,13 +9429,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -9191,13 +9444,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -9206,13 +9459,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -9221,13 +9474,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -9236,13 +9489,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -9251,13 +9504,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -9266,13 +9519,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -9281,13 +9534,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -9296,13 +9549,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -9311,13 +9564,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -9326,13 +9579,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -9341,13 +9594,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -9356,13 +9609,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -9371,13 +9624,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -9386,13 +9639,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -9401,13 +9654,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -9416,13 +9669,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155" tabRatio="729" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
   <si>
     <t>Team</t>
   </si>
@@ -236,12 +236,6 @@
     <t>moniter and revew git submishions</t>
   </si>
   <si>
-    <t>spell cheacking desin documet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alterling documents </t>
-  </si>
-  <si>
     <t>project plan overview</t>
   </si>
   <si>
@@ -323,10 +317,19 @@
     <t>gihub issues tracking</t>
   </si>
   <si>
-    <t>project plan desin redux</t>
+    <t xml:space="preserve">Note as agreed in group meetings. Less than 20 hours at end of project is condishion for a review buy the group leader for a yellow card </t>
   </si>
   <si>
-    <t xml:space="preserve">Note as agreed in group meetings. Less than 20 hours at end of project is condishion for a review buy the group leader for a yellow card </t>
+    <t>spell checking design document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altering documents </t>
+  </si>
+  <si>
+    <t>project plan design redux</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1142,21 +1145,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,9 +1168,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1196,6 +1181,9 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,6 +1195,21 @@
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2677,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2699,14 +2702,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,14 +2760,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2773,16 +2776,16 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="51">
+      <c r="D5" s="76">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51">
+      <c r="E5" s="75"/>
+      <c r="F5" s="76">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2792,14 +2795,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2808,14 +2811,14 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="51">
+      <c r="D7" s="76">
         <v>40</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76">
         <v>40</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2825,14 +2828,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="49" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2841,16 +2844,16 @@
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="53">
+      <c r="D9" s="74">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51">
+      <c r="E9" s="75"/>
+      <c r="F9" s="76">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
@@ -2869,32 +2872,34 @@
       <c r="D10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="50">
         <f>'Cormac Brady'!$J$6</f>
         <v>68.75</v>
       </c>
-      <c r="C11" s="57">
-        <f>$H$7-B11:B11</f>
+      <c r="C11" s="52">
+        <f t="shared" ref="C11:C22" si="0">$H$7-B11:B11</f>
         <v>11.25</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
@@ -2905,16 +2910,16 @@
         <v>58</v>
       </c>
       <c r="C12" s="18">
-        <f>$H$7-B12:B12</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="74"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="69"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
@@ -2925,16 +2930,16 @@
         <v>51</v>
       </c>
       <c r="C13" s="16">
-        <f>$H$7-B13:B13</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="74"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="69"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
@@ -2945,16 +2950,16 @@
         <v>45</v>
       </c>
       <c r="C14" s="16">
-        <f>$H$7-B14:B14</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="74"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="69"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
@@ -2965,16 +2970,16 @@
         <v>42.25</v>
       </c>
       <c r="C15" s="18">
-        <f>$H$7-B15:B15</f>
+        <f t="shared" si="0"/>
         <v>37.75</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="74"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="69"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
@@ -2985,16 +2990,16 @@
         <v>36.5</v>
       </c>
       <c r="C16" s="16">
-        <f>$H$7-B16:B16</f>
+        <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="74"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
@@ -3005,16 +3010,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="16">
-        <f>$H$7-B17:B17</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="74"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="69"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
@@ -3025,16 +3030,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="16">
-        <f>$H$7-B18:B18</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="74"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="69"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
@@ -3045,16 +3050,16 @@
         <v>10.5</v>
       </c>
       <c r="C19" s="18">
-        <f>$H$7-B19:B19</f>
+        <f t="shared" si="0"/>
         <v>69.5</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="74"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="69"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
@@ -3065,16 +3070,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="18">
-        <f>$H$7-B20:B20</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D20" s="41"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="74"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="69"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
@@ -3085,40 +3090,40 @@
         <v>3</v>
       </c>
       <c r="C21" s="18">
-        <f>$H$7-B21:B21</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="74"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="69"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="51">
         <f>'Kieran Lynch'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C22" s="58">
-        <f>$H$7-B22:B22</f>
+      <c r="C22" s="53">
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="74"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="44">
         <f>SUM(Table1[Time Spent])</f>
@@ -3126,50 +3131,56 @@
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="44">
         <f>AVERAGE(Table1[Time Spent])</f>
         <v>30.083333333333332</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F11:H23"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -3179,12 +3190,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B22">
     <cfRule type="colorScale" priority="2">
@@ -3285,7 +3290,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
@@ -3306,7 +3311,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="16">
         <v>2</v>
@@ -3750,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3804,7 +3809,7 @@
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="14">
         <v>0.5</v>
@@ -3813,7 +3818,7 @@
         <v>0.25</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
@@ -3834,7 +3839,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
@@ -3891,7 +3896,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -3912,7 +3917,7 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="23">
         <v>10</v>
@@ -4296,7 +4301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4353,7 +4358,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
@@ -4374,7 +4379,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="16">
         <v>2</v>
@@ -4405,7 +4410,7 @@
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="18">
         <v>1</v>
@@ -4431,7 +4436,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -4887,7 +4892,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="14">
         <v>2</v>
@@ -4908,7 +4913,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="16">
         <v>10</v>
@@ -5636,7 +5641,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="24">
         <v>1</v>
@@ -6018,7 +6023,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="24">
         <v>2</v>
@@ -6598,7 +6603,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
@@ -6645,7 +6650,7 @@
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="24">
         <v>12</v>
@@ -7165,7 +7170,7 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="24">
         <v>12</v>
@@ -7191,7 +7196,7 @@
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -7710,7 +7715,7 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="23">
         <v>2</v>
@@ -8177,7 +8182,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="24">
         <v>9</v>
@@ -8622,7 +8627,7 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8699,7 +8704,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16">
         <v>0.5</v>
@@ -8730,7 +8735,7 @@
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="18" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E4" s="23">
         <v>1</v>
@@ -8756,7 +8761,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -8777,7 +8782,7 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="23">
         <v>4</v>
@@ -9161,8 +9166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9218,7 +9223,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
@@ -9239,7 +9244,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="16">
         <v>3</v>
@@ -9270,7 +9275,7 @@
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="18">
         <v>0.1</v>
@@ -9296,7 +9301,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -9317,7 +9322,7 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="23">
         <v>5</v>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\cs-221-group-project\man\Project_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cormac\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155" tabRatio="729" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16155" tabRatio="729" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Scott Lockett" sheetId="12" r:id="rId12"/>
     <sheet name="Zach Yewman" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="99">
   <si>
     <t>Team</t>
   </si>
@@ -317,9 +317,6 @@
     <t>gihub issues tracking</t>
   </si>
   <si>
-    <t xml:space="preserve">Note as agreed in group meetings. Less than 20 hours at end of project is condishion for a review buy the group leader for a yellow card </t>
-  </si>
-  <si>
     <t>spell checking design document</t>
   </si>
   <si>
@@ -330,6 +327,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note as agreed in group meetings. Less than 20 hours at end of project is condishion for a review by the group leader for a yellow card </t>
+  </si>
+  <si>
+    <t>project Maintenance Manual</t>
   </si>
 </sst>
 </file>
@@ -2680,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2891,10 +2894,10 @@
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>97</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>93</v>
       </c>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="B16" s="15">
         <f>'Karl Franks'!$J$6</f>
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="57"/>
@@ -3127,7 +3130,7 @@
       </c>
       <c r="B23" s="44">
         <f>SUM(Table1[Time Spent])</f>
-        <v>361</v>
+        <v>361.5</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -3144,7 +3147,7 @@
       </c>
       <c r="B24" s="44">
         <f>AVERAGE(Table1[Time Spent])</f>
-        <v>30.083333333333332</v>
+        <v>30.125</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -4301,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8704,7 +8707,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="16">
         <v>0.5</v>
@@ -8735,7 +8738,7 @@
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="23">
         <v>1</v>
@@ -8782,7 +8785,7 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="23">
         <v>4</v>
@@ -9166,8 +9169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9259,7 +9262,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -9337,7 +9340,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
@@ -9347,9 +9350,15 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.5</v>
+      </c>
       <c r="G7" s="20"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -913,16 +913,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2278,14 +2278,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1">
@@ -2336,14 +2336,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2352,16 +2352,16 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="59">
+      <c r="D5" s="57">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59">
+      <c r="E5" s="58"/>
+      <c r="F5" s="57">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2371,14 +2371,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2387,14 +2387,14 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="59">
+      <c r="D7" s="57">
         <v>40</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59">
+      <c r="E7" s="58"/>
+      <c r="F7" s="57">
         <v>40</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2404,14 +2404,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2420,16 +2420,16 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="59">
+      <c r="D9" s="57">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59">
+      <c r="E9" s="58"/>
+      <c r="F9" s="57">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
@@ -2548,11 +2548,11 @@
         <v>23</v>
       </c>
       <c r="B16" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="24"/>
@@ -2680,6 +2680,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2688,12 +2694,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -913,16 +913,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2257,7 +2257,7 @@
   <dimension ref="A1:IV23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2278,14 +2278,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="59" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="60"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1">
@@ -2336,14 +2336,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2352,16 +2352,16 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="57">
+      <c r="D5" s="59">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57">
+      <c r="E5" s="60"/>
+      <c r="F5" s="59">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2371,14 +2371,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2387,14 +2387,14 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="57">
+      <c r="D7" s="59">
         <v>40</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57">
+      <c r="E7" s="60"/>
+      <c r="F7" s="59">
         <v>40</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2404,14 +2404,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2420,16 +2420,16 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="57">
+      <c r="D9" s="59">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57">
+      <c r="E9" s="60"/>
+      <c r="F9" s="59">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
@@ -2548,11 +2548,11 @@
         <v>23</v>
       </c>
       <c r="B16" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="24"/>
@@ -2680,12 +2680,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2694,6 +2688,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cormac\Documents\GitHub\cs-221-group-project\man\Project_Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,7 @@
     <sheet name="Scott Lockett" sheetId="12" r:id="rId12"/>
     <sheet name="Zach Yewman" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -907,24 +907,24 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -932,7 +932,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2257,20 +2257,20 @@
   <dimension ref="A1:IV23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="256" width="6.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2278,17 +2278,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2332,110 +2332,110 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="59">
+      <c r="D5" s="53">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59">
+      <c r="E5" s="54"/>
+      <c r="F5" s="53">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="59">
+      <c r="D7" s="53">
         <v>40</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59">
+      <c r="E7" s="54"/>
+      <c r="F7" s="53">
         <v>40</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="59">
+      <c r="D9" s="53">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59">
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
@@ -2543,16 +2543,17 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="26">
-        <v>21</v>
+        <f>'Rhys Howard'!$J$6</f>
+        <v>10</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="24"/>
@@ -2560,7 +2561,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
@@ -2596,25 +2597,25 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="59">
         <f>'Kieran Lynch'!$J$6</f>
         <v>3</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="60">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="24"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -2632,7 +2633,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2651,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
@@ -2668,7 +2669,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -2680,6 +2681,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2688,23 +2695,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2714,24 +2710,24 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="46" customWidth="1"/>
     <col min="4" max="4" width="23" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="46" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="46" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="46" customWidth="1"/>
     <col min="13" max="13" width="8" style="46" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="46" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2758,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2783,7 +2779,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2814,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -2834,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2849,7 +2845,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -2869,7 +2865,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -2884,7 +2880,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -2899,7 +2895,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -2914,7 +2910,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -2929,7 +2925,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -2944,7 +2940,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -2959,7 +2955,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -2974,7 +2970,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2989,7 +2985,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3004,7 +3000,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3019,7 +3015,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -3034,7 +3030,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3049,7 +3045,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -3064,7 +3060,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3079,7 +3075,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3094,7 +3090,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3109,7 +3105,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -3124,7 +3120,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3139,7 +3135,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -3154,7 +3150,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -3169,7 +3165,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -3184,7 +3180,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3199,7 +3195,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -3220,11 +3216,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3236,24 +3227,24 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="47" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="47" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="47" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="47" customWidth="1"/>
     <col min="13" max="13" width="8" style="47" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="47" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -3284,7 +3275,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -3311,7 +3302,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -3342,7 +3333,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3368,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -3389,7 +3380,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -3415,7 +3406,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3430,7 +3421,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -3445,7 +3436,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3460,7 +3451,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -3475,7 +3466,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3490,7 +3481,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3505,7 +3496,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -3520,7 +3511,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3535,7 +3526,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3550,7 +3541,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3565,7 +3556,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -3580,7 +3571,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3595,7 +3586,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -3610,7 +3601,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3625,7 +3616,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3640,7 +3631,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3655,7 +3646,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -3670,7 +3661,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3685,7 +3676,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -3700,7 +3691,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -3715,7 +3706,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -3730,7 +3721,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3745,7 +3736,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -3766,11 +3757,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3782,24 +3768,24 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="48" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="48" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="48" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="48" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="48" customWidth="1"/>
     <col min="13" max="13" width="8" style="48" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="48" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -3830,7 +3816,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -3851,7 +3837,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -3882,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3908,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -3929,7 +3915,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -3949,7 +3935,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3964,7 +3950,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -3979,7 +3965,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3994,7 +3980,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -4009,7 +3995,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4024,7 +4010,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -4039,7 +4025,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -4054,7 +4040,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4069,7 +4055,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -4084,7 +4070,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4099,7 +4085,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -4114,7 +4100,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4129,7 +4115,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4144,7 +4130,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4159,7 +4145,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4174,7 +4160,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4189,7 +4175,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -4204,7 +4190,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4219,7 +4205,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -4234,7 +4220,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4249,7 +4235,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -4264,7 +4250,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4279,7 +4265,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -4300,11 +4286,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4316,24 +4297,24 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="49" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="49" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="49" customWidth="1"/>
     <col min="13" max="13" width="8" style="49" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="49" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -4364,7 +4345,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -4385,7 +4366,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -4416,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4442,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -4457,7 +4438,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -4477,7 +4458,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -4492,7 +4473,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -4507,7 +4488,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -4522,7 +4503,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -4537,7 +4518,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4552,7 +4533,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -4567,7 +4548,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -4582,7 +4563,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4597,7 +4578,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -4612,7 +4593,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4627,7 +4608,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -4642,7 +4623,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4657,7 +4638,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4672,7 +4653,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4687,7 +4668,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4702,7 +4683,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4717,7 +4698,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -4732,7 +4713,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4747,7 +4728,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -4762,7 +4743,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4777,7 +4758,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -4792,7 +4773,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4807,7 +4788,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -4828,11 +4809,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4844,24 +4820,24 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="32" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="32" customWidth="1"/>
     <col min="13" max="13" width="8" style="32" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="32" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -4892,7 +4868,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -4919,7 +4895,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
@@ -4956,7 +4932,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4982,7 +4958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -5003,7 +4979,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -5029,7 +5005,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -5050,7 +5026,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -5071,7 +5047,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5092,7 +5068,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -5113,7 +5089,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -5128,7 +5104,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -5143,7 +5119,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -5158,7 +5134,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -5173,7 +5149,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -5188,7 +5164,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -5203,7 +5179,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5218,7 +5194,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -5233,7 +5209,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -5248,7 +5224,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5263,7 +5239,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -5278,7 +5254,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5293,7 +5269,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -5308,7 +5284,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -5323,7 +5299,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -5338,7 +5314,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -5353,7 +5329,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -5368,7 +5344,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5383,7 +5359,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -5404,11 +5380,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5420,24 +5391,24 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="38" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="38" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="38" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="38" customWidth="1"/>
     <col min="13" max="13" width="8" style="38" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="38" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -5468,7 +5439,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -5489,7 +5460,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -5520,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5540,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -5555,7 +5526,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -5575,7 +5546,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -5590,7 +5561,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -5605,7 +5576,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5620,7 +5591,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -5635,7 +5606,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -5650,7 +5621,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -5665,7 +5636,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -5680,7 +5651,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -5695,7 +5666,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -5710,7 +5681,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -5725,7 +5696,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5740,7 +5711,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -5755,7 +5726,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -5770,7 +5741,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5785,7 +5756,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -5800,7 +5771,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5815,7 +5786,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -5830,7 +5801,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -5845,7 +5816,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -5860,7 +5831,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -5875,7 +5846,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -5890,7 +5861,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5905,7 +5876,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -5922,15 +5893,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5942,24 +5908,24 @@
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="40" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="40" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="40" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="40" customWidth="1"/>
     <col min="13" max="13" width="8" style="40" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="40" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -5990,7 +5956,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -6011,7 +5977,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -6042,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6068,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6089,7 +6055,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -6115,7 +6081,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -6136,7 +6102,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6151,7 +6117,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -6166,7 +6132,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -6181,7 +6147,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -6196,7 +6162,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -6211,7 +6177,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6226,7 +6192,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -6241,7 +6207,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6256,7 +6222,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -6271,7 +6237,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6286,7 +6252,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -6301,7 +6267,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6316,7 +6282,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -6331,7 +6297,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6346,7 +6312,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -6361,7 +6327,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6376,7 +6342,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -6391,7 +6357,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6406,7 +6372,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -6421,7 +6387,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -6436,7 +6402,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6451,7 +6417,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -6472,11 +6438,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6488,24 +6449,24 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="41" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="41" customWidth="1"/>
     <col min="13" max="13" width="8" style="41" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="41" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -6536,7 +6497,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -6557,7 +6518,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -6588,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6614,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6635,7 +6596,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -6661,7 +6622,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -6676,7 +6637,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6691,7 +6652,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -6706,7 +6667,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -6721,7 +6682,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -6736,7 +6697,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -6751,7 +6712,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6766,7 +6727,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -6781,7 +6742,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6796,7 +6757,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -6811,7 +6772,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6826,7 +6787,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -6841,7 +6802,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6856,7 +6817,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -6871,7 +6832,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6886,7 +6847,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -6901,7 +6862,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6916,7 +6877,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -6931,7 +6892,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6946,7 +6907,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -6961,7 +6922,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -6976,7 +6937,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6991,7 +6952,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7012,11 +6973,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7028,23 +6984,23 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="42" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="42" customWidth="1"/>
-    <col min="9" max="10" width="14.625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="42" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="42" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="42" customWidth="1"/>
     <col min="13" max="13" width="8" style="42" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="42" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -7075,7 +7031,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -7096,7 +7052,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -7127,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -7153,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -7174,7 +7130,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -7200,7 +7156,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -7215,7 +7171,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -7230,7 +7186,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -7245,7 +7201,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -7260,7 +7216,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -7275,7 +7231,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -7290,7 +7246,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -7305,7 +7261,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -7320,7 +7276,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -7335,7 +7291,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7350,7 +7306,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -7365,7 +7321,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -7380,7 +7336,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -7395,7 +7351,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -7410,7 +7366,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -7425,7 +7381,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -7440,7 +7396,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -7455,7 +7411,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -7470,7 +7426,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -7485,7 +7441,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -7500,7 +7456,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -7515,7 +7471,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -7530,7 +7486,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7551,11 +7507,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7565,23 +7516,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="43" customWidth="1"/>
-    <col min="9" max="10" width="14.625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="43" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="43" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="43" customWidth="1"/>
     <col min="13" max="13" width="8" style="43" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="43" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -7612,7 +7563,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
@@ -7639,7 +7590,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -7664,7 +7615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -7684,7 +7635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -7699,7 +7650,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -7719,7 +7670,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -7734,7 +7685,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -7749,7 +7700,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -7764,7 +7715,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -7779,7 +7730,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -7794,7 +7745,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -7809,7 +7760,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -7824,7 +7775,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -7839,7 +7790,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -7854,7 +7805,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7869,7 +7820,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -7884,7 +7835,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -7899,7 +7850,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -7914,7 +7865,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -7929,7 +7880,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -7944,7 +7895,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -7959,7 +7910,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -7974,7 +7925,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -7989,7 +7940,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8004,7 +7955,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -8019,7 +7970,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -8034,7 +7985,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -8049,7 +8000,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8070,11 +8021,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8086,24 +8032,24 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="44" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="44" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="44" customWidth="1"/>
     <col min="13" max="13" width="8" style="44" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="44" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -8134,7 +8080,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -8155,7 +8101,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -8186,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8212,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -8233,7 +8179,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8253,7 +8199,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -8268,7 +8214,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -8283,7 +8229,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -8298,7 +8244,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -8313,7 +8259,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -8328,7 +8274,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -8343,7 +8289,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8358,7 +8304,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -8373,7 +8319,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -8388,7 +8334,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -8403,7 +8349,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -8418,7 +8364,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -8433,7 +8379,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -8448,7 +8394,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -8463,7 +8409,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -8478,7 +8424,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -8493,7 +8439,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -8508,7 +8454,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -8523,7 +8469,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8538,7 +8484,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -8553,7 +8499,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -8568,7 +8514,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -8583,7 +8529,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8604,11 +8550,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8620,24 +8561,24 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="45" customWidth="1"/>
     <col min="4" max="4" width="22" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="45" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="45" customWidth="1"/>
     <col min="13" max="13" width="8" style="45" customWidth="1"/>
-    <col min="14" max="256" width="6.625" style="45" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.5" customHeight="1">
+    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -8668,7 +8609,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" customHeight="1">
+    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -8689,7 +8630,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -8720,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8746,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -8767,7 +8708,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8793,7 +8734,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -8808,7 +8749,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -8823,7 +8764,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -8838,7 +8779,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -8853,7 +8794,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -8868,7 +8809,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -8883,7 +8824,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="17" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8898,7 +8839,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -8913,7 +8854,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -8928,7 +8869,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -8943,7 +8884,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -8958,7 +8899,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -8973,7 +8914,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -8988,7 +8929,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -9003,7 +8944,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -9018,7 +8959,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -9033,7 +8974,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -9048,7 +8989,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -9063,7 +9004,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -9078,7 +9019,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -9093,7 +9034,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -9108,7 +9049,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -9123,7 +9064,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -9144,10 +9085,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/man/Project_Plan/TimeSheet.xlsx
+++ b/man/Project_Plan/TimeSheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="94">
   <si>
     <t>Team</t>
   </si>
@@ -305,12 +305,21 @@
   <si>
     <t>Cureation</t>
   </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>documentation redux (desin section)</t>
+  </si>
+  <si>
+    <t>varoues doc's</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -368,8 +377,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +426,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -581,21 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="13"/>
       </left>
@@ -630,21 +637,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="9"/>
       </right>
       <top style="thin">
@@ -652,21 +644,6 @@
       </top>
       <bottom style="thin">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="13"/>
-      </right>
-      <top style="medium">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,21 +724,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="13"/>
-      </right>
-      <top style="medium">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="9"/>
       </left>
       <right style="thin">
@@ -805,6 +767,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="13"/>
+      </right>
+      <top style="medium">
+        <color indexed="13"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="13"/>
+      </right>
+      <top style="medium">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -813,7 +888,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -837,43 +912,28 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -904,34 +964,170 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="13"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1010,6 +1206,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D22" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A10:D22"/>
+  <sortState ref="A11:D22">
+    <sortCondition descending="1" ref="B10:B22"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Member"/>
+    <tableColumn id="2" name="Time Spent" dataDxfId="2"/>
+    <tableColumn id="3" name="Hours left" dataDxfId="1">
+      <calculatedColumnFormula>$H$7-B11:B11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="card" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2257,7 +2471,7 @@
   <dimension ref="A1:IV23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2278,14 +2492,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,14 +2550,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2352,16 +2566,16 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="53">
+      <c r="D5" s="47">
         <f>INT((E3-D3)/7)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53">
+      <c r="E5" s="48"/>
+      <c r="F5" s="47">
         <f>INT((G3-F3)/7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="6">
         <f>(D5+F5)</f>
         <v>16</v>
@@ -2371,14 +2585,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2387,14 +2601,14 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="53">
+      <c r="D7" s="47">
         <v>40</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53">
+      <c r="E7" s="48"/>
+      <c r="F7" s="47">
         <v>40</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="2">
         <f>D7+F7</f>
         <v>80</v>
@@ -2404,14 +2618,14 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2420,260 +2634,260 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="53">
+      <c r="D9" s="47">
         <f>INT(D7/D5)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53">
+      <c r="E9" s="48"/>
+      <c r="F9" s="47">
         <f>INT(F7/F5)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="6">
         <f>D9+F9</f>
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="21">
-        <f>'Abdullah Alkhashty'!$J$6</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="22">
-        <f t="shared" ref="C11:C22" si="0">$H$7-B11:B11</f>
-        <v>77</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="57">
+        <f>'Cormac Brady'!$J$6</f>
+        <v>64.75</v>
+      </c>
+      <c r="C11" s="59">
+        <f>$H$7-B11:B11</f>
+        <v>15.25</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="26">
-        <f>'Au, Yee Tim'!$J$6</f>
-        <v>28</v>
-      </c>
-      <c r="C12" s="27">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20">
+        <f>'Zach Yewman'!$J$6</f>
+        <v>51</v>
+      </c>
+      <c r="C12" s="21">
+        <f>$H$7-B12:B12</f>
+        <v>29</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="28">
-        <f>'Calvin Chan'!$J$6</f>
-        <v>22.25</v>
-      </c>
-      <c r="C13" s="29">
-        <f t="shared" si="0"/>
-        <v>57.75</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="22">
+        <f>'Henry Hollingsworth'!$J$6</f>
+        <v>48</v>
+      </c>
+      <c r="C13" s="23">
+        <f>$H$7-B13:B13</f>
+        <v>32</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="26">
-        <f>'Cormac Brady'!$J$6</f>
-        <v>64.75</v>
-      </c>
-      <c r="C14" s="27">
-        <f t="shared" si="0"/>
-        <v>15.25</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="20">
+        <f>'Au, Yee Tim'!$J$6</f>
+        <v>44</v>
+      </c>
+      <c r="C14" s="21">
+        <f>$H$7-B14:B14</f>
+        <v>36</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="28">
-        <f>'Henry Hollingsworth'!$J$6</f>
-        <v>48</v>
-      </c>
-      <c r="C15" s="29">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="22">
+        <f>'Calvin Chan'!$J$6</f>
+        <v>38.25</v>
+      </c>
+      <c r="C15" s="23">
+        <f>$H$7-B15:B15</f>
+        <v>41.75</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="26">
-        <f>'Rhys Howard'!$J$6</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="27">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="20">
+        <f>'Karl Franks'!$J$6</f>
+        <v>30.5</v>
+      </c>
+      <c r="C16" s="21">
+        <f>$H$7-B16:B16</f>
+        <v>49.5</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="20">
+        <f>'Melissa Smith'!$J$6</f>
         <v>24</v>
       </c>
-      <c r="B17" s="28">
-        <f>'James Portch'!$J$6</f>
-        <v>6.5</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="24"/>
+      <c r="C17" s="21">
+        <f>$H$7-B17:B17</f>
+        <v>56</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="26">
-        <f>'Karl Franks'!$J$6</f>
-        <v>30.5</v>
-      </c>
-      <c r="C18" s="27">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="22">
+        <f>'James Portch'!$J$6</f>
+        <v>12.5</v>
+      </c>
+      <c r="C18" s="23">
+        <f>$H$7-B18:B18</f>
+        <v>67.5</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="59">
-        <f>'Kieran Lynch'!$J$6</f>
-        <v>3</v>
-      </c>
-      <c r="C19" s="60">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="22">
+        <f>'Scott Lockett'!$J$6</f>
+        <v>8</v>
+      </c>
+      <c r="C19" s="23">
+        <f>$H$7-B19:B19</f>
+        <v>72</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="26">
-        <f>'Melissa Smith'!$J$6</f>
-        <v>15</v>
-      </c>
-      <c r="C20" s="27">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="20">
+        <f>'Rhys Howard'!$J$6</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="21">
+        <f>$H$7-B20:B20</f>
+        <v>75</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="28">
-        <f>'Scott Lockett'!$J$6</f>
-        <v>8</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22">
+        <f>'Abdullah Alkhashty'!$J$6</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="23">
+        <f>$H$7-B21:B21</f>
+        <v>77</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="26">
-        <f>'Zach Yewman'!$J$6</f>
-        <v>51</v>
-      </c>
-      <c r="C22" s="27">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="58">
+        <f>'Kieran Lynch'!$J$6</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="60">
+        <f>$H$7-B22:B22</f>
+        <v>77</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2681,12 +2895,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D6:E6"/>
@@ -2695,12 +2903,57 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
+  <conditionalFormatting sqref="B11:B23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2712,41 +2965,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="23" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="46" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8" style="46" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="23" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="39" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="39" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="8" style="39" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -2759,40 +3012,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -2811,13 +3064,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2831,28 +3084,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -2866,13 +3119,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2881,13 +3134,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2896,13 +3149,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -2911,13 +3164,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2926,13 +3179,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2941,13 +3194,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2956,13 +3209,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2971,13 +3224,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -2986,13 +3239,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3001,13 +3254,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3016,13 +3269,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -3031,13 +3284,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3046,13 +3299,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3061,13 +3314,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3076,13 +3329,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3091,13 +3344,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3106,13 +3359,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3121,13 +3374,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3136,13 +3389,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3151,13 +3404,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3166,13 +3419,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -3181,13 +3434,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3196,13 +3449,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -3224,46 +3477,46 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="47" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="8" style="47" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="40" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8" style="40" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -3276,53 +3529,53 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>0.5</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>0.25</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>1</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -3334,19 +3587,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3360,60 +3613,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <v>7</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>10</v>
       </c>
-      <c r="F6" s="36">
-        <v>1</v>
-      </c>
-      <c r="G6" s="33"/>
+      <c r="F6" s="29">
+        <v>10</v>
+      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3422,13 +3675,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3437,13 +3690,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3452,13 +3705,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3467,13 +3720,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3482,13 +3735,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3497,13 +3750,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -3512,13 +3765,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3527,13 +3780,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3542,13 +3795,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3557,13 +3810,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -3572,13 +3825,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3587,13 +3840,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3602,13 +3855,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3617,13 +3870,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3632,13 +3885,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3647,13 +3900,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3662,13 +3915,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3677,13 +3930,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3692,13 +3945,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3707,13 +3960,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -3722,13 +3975,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3737,13 +3990,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -3770,41 +4023,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="48" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="8" style="48" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="8" style="41" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -3817,40 +4070,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>5</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -3869,19 +4122,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>1</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3895,34 +4148,34 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -3936,13 +4189,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3951,13 +4204,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3966,13 +4219,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3981,13 +4234,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3996,13 +4249,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -4011,13 +4264,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4026,13 +4279,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4041,13 +4294,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -4056,13 +4309,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -4071,13 +4324,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4086,13 +4339,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -4101,13 +4354,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -4116,13 +4369,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4131,13 +4384,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4146,13 +4399,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -4161,13 +4414,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4176,13 +4429,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -4191,13 +4444,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4206,13 +4459,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4221,13 +4474,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4236,13 +4489,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4251,13 +4504,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4266,13 +4519,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -4299,41 +4552,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="49" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="49" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="8" style="49" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="42" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="42" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="8" style="42" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -4346,40 +4599,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>4</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>10</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>5</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -4398,19 +4651,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>42</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4424,28 +4677,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -4459,13 +4712,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -4474,13 +4727,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4489,13 +4742,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4504,13 +4757,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4519,13 +4772,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -4534,13 +4787,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4549,13 +4802,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4564,13 +4817,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -4579,13 +4832,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -4594,13 +4847,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4609,13 +4862,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -4624,13 +4877,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -4639,13 +4892,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4654,13 +4907,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4669,13 +4922,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -4684,13 +4937,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4699,13 +4952,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -4714,13 +4967,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4729,13 +4982,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4744,13 +4997,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4759,13 +5012,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4774,13 +5027,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4789,13 +5042,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -4822,41 +5075,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="8" style="32" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="25" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="8" style="25" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -4869,52 +5122,52 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="21">
         <v>0.5</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="21">
         <v>0.5</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>1.5</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -4933,19 +5186,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4959,40 +5212,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>4</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="29" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <v>1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="23">
         <v>1</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -5006,19 +5259,19 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="27" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="21">
         <v>1</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="21">
         <v>0.25</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5027,19 +5280,19 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="23">
         <v>1</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="23">
         <v>2</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5048,19 +5301,19 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5069,19 +5322,19 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="23">
         <v>1</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="23">
         <v>27</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5090,13 +5343,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5105,13 +5358,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5120,13 +5373,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -5135,13 +5388,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5150,13 +5403,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -5165,13 +5418,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5180,13 +5433,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -5195,13 +5448,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -5210,13 +5463,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -5225,13 +5478,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5240,13 +5493,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -5255,13 +5508,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -5270,13 +5523,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -5285,13 +5538,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5300,13 +5553,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5315,13 +5568,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5330,13 +5583,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -5345,13 +5598,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5360,13 +5613,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5393,41 +5646,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="38" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="38" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="8" style="38" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="31" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="8" style="31" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -5440,40 +5693,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>0.3</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="30">
         <v>2</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -5492,13 +5745,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5512,28 +5765,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -5547,13 +5800,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5562,13 +5815,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5577,13 +5830,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5592,13 +5845,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5607,13 +5860,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5622,13 +5875,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5637,13 +5890,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -5652,13 +5905,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5667,13 +5920,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -5682,13 +5935,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5697,13 +5950,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -5712,13 +5965,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -5727,13 +5980,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -5742,13 +5995,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5757,13 +6010,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -5772,13 +6025,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -5787,13 +6040,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -5802,13 +6055,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5817,13 +6070,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5832,13 +6085,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5847,13 +6100,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -5862,13 +6115,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5877,13 +6130,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5905,46 +6158,46 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="40" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="40" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="8" style="40" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="33" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8" style="33" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -5957,40 +6210,46 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>3</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -6005,23 +6264,23 @@
       </c>
       <c r="M3" s="6">
         <f>SUM(C2:C29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>3</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -6031,70 +6290,70 @@
       </c>
       <c r="M4" s="6">
         <f>M3*Task_Table!H5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>3</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="29" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>1</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="29">
         <v>5</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="51" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="30">
         <v>12</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>12</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -6103,13 +6362,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6118,13 +6377,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -6133,13 +6392,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -6148,13 +6407,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -6163,13 +6422,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -6178,13 +6437,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -6193,13 +6452,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -6208,13 +6467,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -6223,13 +6482,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -6238,13 +6497,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -6253,13 +6512,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -6268,13 +6527,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -6283,13 +6542,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -6298,13 +6557,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -6313,13 +6572,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -6328,13 +6587,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6343,13 +6602,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -6358,13 +6617,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -6373,13 +6632,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -6388,13 +6647,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -6403,13 +6662,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6418,13 +6677,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -6446,46 +6705,46 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="41" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="41" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="8" style="41" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="34" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="8" style="34" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -6498,40 +6757,46 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>0.5</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -6546,23 +6811,23 @@
       </c>
       <c r="M3" s="6">
         <f>SUM(C2:C29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -6572,64 +6837,64 @@
       </c>
       <c r="M4" s="6">
         <f>M3*Task_Table!H5</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>1.25</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="51" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="30">
         <v>12</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="30">
         <v>15</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>22.25</v>
+        <v>38.25</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -6638,13 +6903,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6653,13 +6918,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -6668,13 +6933,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -6683,13 +6948,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -6698,13 +6963,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -6713,13 +6978,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -6728,13 +6993,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -6743,13 +7008,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -6758,13 +7023,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -6773,13 +7038,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -6788,13 +7053,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -6803,13 +7068,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -6818,13 +7083,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -6833,13 +7098,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -6848,13 +7113,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -6863,13 +7128,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6878,13 +7143,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -6893,13 +7158,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -6908,13 +7173,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -6923,13 +7188,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -6938,13 +7203,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6953,13 +7218,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -6986,40 +7251,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="42" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="42" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="8" style="42" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="35" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="8" style="35" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -7032,40 +7297,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>1</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -7084,19 +7349,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>10</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>38</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7110,40 +7375,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>2</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="29">
         <v>5</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -7157,13 +7422,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7172,13 +7437,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -7187,13 +7452,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -7202,13 +7467,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7217,13 +7482,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7232,13 +7497,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -7247,13 +7512,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -7262,13 +7527,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -7277,13 +7542,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7292,13 +7557,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7307,13 +7572,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -7322,13 +7587,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -7337,13 +7602,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -7352,13 +7617,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -7367,13 +7632,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -7382,13 +7647,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -7397,13 +7662,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -7412,13 +7677,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -7427,13 +7692,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -7442,13 +7707,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -7457,13 +7722,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -7472,13 +7737,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7487,13 +7752,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -7514,44 +7779,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="43" customWidth="1"/>
-    <col min="9" max="10" width="14.59765625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="8" style="43" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="36" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="36" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="8" style="36" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -7564,47 +7831,53 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>3</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="30">
+        <v>3</v>
+      </c>
+      <c r="F3" s="30">
+        <v>3</v>
+      </c>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -7612,17 +7885,17 @@
       </c>
       <c r="M3" s="6">
         <f>SUM(C2:C29)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7632,52 +7905,52 @@
       </c>
       <c r="M4" s="6">
         <f>M3*Task_Table!H5</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7686,13 +7959,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -7701,13 +7974,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -7716,13 +7989,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7731,13 +8004,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7746,13 +8019,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -7761,13 +8034,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -7776,13 +8049,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -7791,13 +8064,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7806,13 +8079,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7821,13 +8094,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -7836,13 +8109,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -7851,13 +8124,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -7866,13 +8139,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -7881,13 +8154,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -7896,13 +8169,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -7911,13 +8184,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -7926,13 +8199,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -7941,13 +8214,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -7956,13 +8229,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -7971,13 +8244,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -7986,13 +8259,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8001,13 +8274,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8029,46 +8302,46 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="44" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="8" style="44" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="37" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="37" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="8" style="37" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -8081,47 +8354,47 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>2</v>
       </c>
-      <c r="F2" s="22">
-        <v>1</v>
-      </c>
-      <c r="G2" s="33"/>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>0.5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>0.5</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="6">
         <f>SUM(F2:F29)</f>
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
@@ -8133,19 +8406,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="29">
         <v>1</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="29">
         <v>3</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -8159,54 +8432,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="37">
-        <v>2</v>
-      </c>
-      <c r="G5" s="33"/>
+      <c r="F5" s="30">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3,M4)</f>
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -8215,13 +8494,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -8230,13 +8509,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -8245,13 +8524,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -8260,13 +8539,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8275,13 +8554,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -8290,13 +8569,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -8305,13 +8584,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -8320,13 +8599,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -8335,13 +8614,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -8350,13 +8629,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -8365,13 +8644,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -8380,13 +8659,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -8395,13 +8674,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -8410,13 +8689,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -8425,13 +8704,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -8440,13 +8719,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -8455,13 +8734,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -8470,13 +8749,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -8485,13 +8764,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8500,13 +8779,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8515,13 +8794,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8530,13 +8809,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8563,41 +8842,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="22" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="45" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="8" style="45" customWidth="1"/>
-    <col min="14" max="256" width="6.59765625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="22" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="38" customWidth="1"/>
+    <col min="7" max="8" width="6.59765625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="8" style="38" customWidth="1"/>
+    <col min="14" max="256" width="6.59765625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
@@ -8610,40 +8889,40 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>42</v>
@@ -8662,19 +8941,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>0.1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>0.5</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -8688,40 +8967,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="52" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>5</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="29">
         <v>24</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -8735,13 +9014,13 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -8750,13 +9029,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -8765,13 +9044,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -8780,13 +9059,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -8795,13 +9074,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8810,13 +9089,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -8825,13 +9104,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -8840,13 +9119,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -8855,13 +9134,13 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -8870,13 +9149,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -8885,13 +9164,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -8900,13 +9179,13 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -8915,13 +9194,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -8930,13 +9209,13 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -8945,13 +9224,13 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -8960,13 +9239,13 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -8975,13 +9254,13 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -8990,13 +9269,13 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -9005,13 +9284,13 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -9020,13 +9299,13 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -9035,13 +9314,13 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -9050,13 +9329,13 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -9065,13 +9344,13 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
